--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t xml:space="preserve">Last_Update</t>
+  </si>
   <si>
     <t xml:space="preserve">Balen</t>
   </si>
@@ -35,6 +38,36 @@
   </si>
   <si>
     <t xml:space="preserve">bminuss</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Jestha @ 5 AM</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -44,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -65,6 +98,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,13 +175,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -159,137 +202,143 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="B2" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="C2" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="D2" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <f aca="false">A2-B2</f>
+      <c r="E2" s="1" t="n">
+        <f aca="false">B2-C2</f>
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <f aca="false">A2-C2</f>
+      <c r="F2" s="1" t="n">
+        <f aca="false">B2-D2</f>
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="B3" s="1" t="n">
         <v>356</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="C3" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="D3" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <f aca="false">A3-B3</f>
+      <c r="E3" s="1" t="n">
+        <f aca="false">B3-C3</f>
         <v>48</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <f aca="false">A3-C3</f>
+      <c r="F3" s="1" t="n">
+        <f aca="false">B3-D3</f>
         <v>159</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="B4" s="1" t="n">
         <v>633</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="C4" s="1" t="n">
         <v>474</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="D4" s="1" t="n">
         <v>335</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false">A4-B4</f>
+      <c r="E4" s="1" t="n">
+        <f aca="false">B4-C4</f>
         <v>159</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <f aca="false">A4-C4</f>
+      <c r="F4" s="1" t="n">
+        <f aca="false">B4-D4</f>
         <v>298</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>768</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="C5" s="1" t="n">
         <v>550</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="D5" s="1" t="n">
         <v>421</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">A5-B5</f>
+      <c r="E5" s="1" t="n">
+        <f aca="false">B5-C5</f>
         <v>218</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <f aca="false">A5-C5</f>
+      <c r="F5" s="1" t="n">
+        <f aca="false">B5-D5</f>
         <v>347</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>1587</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="C6" s="1" t="n">
         <v>887</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="D6" s="1" t="n">
         <v>822</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <f aca="false">A6-B6</f>
+      <c r="E6" s="1" t="n">
+        <f aca="false">B6-C6</f>
         <v>700</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <f aca="false">A6-C6</f>
+      <c r="F6" s="1" t="n">
+        <f aca="false">B6-D6</f>
         <v>765</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>4139</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="C7" s="1" t="n">
         <v>2148</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="D7" s="1" t="n">
         <v>1934</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <f aca="false">A7-B7</f>
+      <c r="E7" s="1" t="n">
+        <f aca="false">B7-C7</f>
         <v>1991</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <f aca="false">A7-C7</f>
+      <c r="F7" s="1" t="n">
+        <f aca="false">B7-D7</f>
         <v>2205</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>5446</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="C8" s="1" t="n">
         <v>2952</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="D8" s="1" t="n">
         <v>2577</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <f aca="false">A8-B8</f>
+      <c r="E8" s="1" t="n">
+        <f aca="false">B8-C8</f>
         <v>2494</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <f aca="false">A8-C8</f>
+      <c r="F8" s="1" t="n">
+        <f aca="false">B8-D8</f>
         <v>2869</v>
       </c>
     </row>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -178,7 +178,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -67,6 +67,36 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Jestha @ 5 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Jestha @ 8 AM</t>
     </r>
   </si>
 </sst>
@@ -175,13 +205,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -340,6 +370,28 @@
       <c r="F8" s="1" t="n">
         <f aca="false">B8-D8</f>
         <v>2869</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>6207</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3243</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>2885</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <f aca="false">B9-C9</f>
+        <v>2964</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <f aca="false">B9-D9</f>
+        <v>3322</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -97,6 +97,36 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Jestha @ 8 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Jestha @ 10 AM</t>
     </r>
   </si>
 </sst>
@@ -205,13 +235,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -392,6 +422,28 @@
       <c r="F9" s="1" t="n">
         <f aca="false">B9-D9</f>
         <v>3322</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>6486</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>3413</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>3009</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <f aca="false">B10-C10</f>
+        <v>3073</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <f aca="false">B10-D10</f>
+        <v>3477</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -127,6 +127,36 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Jestha @ 10 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Jestha @ 11:30 AM</t>
     </r>
   </si>
 </sst>
@@ -235,13 +265,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -444,6 +474,28 @@
       <c r="F10" s="1" t="n">
         <f aca="false">B10-D10</f>
         <v>3477</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>6692</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>3562</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>3126</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <f aca="false">B11-C11</f>
+        <v>3130</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <f aca="false">B11-D11</f>
+        <v>3566</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -157,6 +157,36 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Jestha @ 11:30 AM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Jestha @ 1 PM</t>
     </r>
   </si>
 </sst>
@@ -265,13 +295,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -496,6 +526,28 @@
       <c r="F11" s="1" t="n">
         <f aca="false">B11-D11</f>
         <v>3566</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>6893</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3644</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>3208</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <f aca="false">B12-C12</f>
+        <v>3249</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <f aca="false">B12-D12</f>
+        <v>3685</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -187,6 +187,36 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Jestha @ 1 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Jestha @ 2:15 PM</t>
     </r>
   </si>
 </sst>
@@ -295,13 +325,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E12"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -548,6 +578,28 @@
       <c r="F12" s="1" t="n">
         <f aca="false">B12-D12</f>
         <v>3685</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>7089</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>3746</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <f aca="false">B13-C13</f>
+        <v>3343</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <f aca="false">B13-D13</f>
+        <v>3789</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -217,6 +217,36 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Jestha @ 2:15 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Jestha @ 3:30 PM</t>
     </r>
   </si>
 </sst>
@@ -325,13 +355,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -600,6 +630,28 @@
       <c r="F13" s="1" t="n">
         <f aca="false">B13-D13</f>
         <v>3789</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>7339</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>3862</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>3358</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <f aca="false">B14-C14</f>
+        <v>3477</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <f aca="false">B14-D14</f>
+        <v>3981</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -247,6 +247,36 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Jestha @ 3:30 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Jestha @ 4:30 PM</t>
     </r>
   </si>
 </sst>
@@ -355,13 +385,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F14"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -652,6 +682,28 @@
       <c r="F14" s="1" t="n">
         <f aca="false">B14-D14</f>
         <v>3981</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>7534</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>4095</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>3400</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <f aca="false">B15-C15</f>
+        <v>3439</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <f aca="false">B15-D15</f>
+        <v>4134</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -388,10 +388,10 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -692,18 +692,18 @@
         <v>7534</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>4095</v>
+        <v>3982</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>3400</v>
+        <v>3486</v>
       </c>
       <c r="E15" s="1" t="n">
         <f aca="false">B15-C15</f>
-        <v>3439</v>
+        <v>3552</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">B15-D15</f>
-        <v>4134</v>
+        <v>4048</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -277,6 +277,36 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Jestha @ 4:30 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Jestha @ 5:30 PM</t>
     </r>
   </si>
 </sst>
@@ -385,10 +415,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -706,6 +736,28 @@
         <v>4048</v>
       </c>
     </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>7771</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>4114</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>3571</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <f aca="false">B16-C16</f>
+        <v>3657</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <f aca="false">B16-D16</f>
+        <v>4200</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -307,6 +307,36 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Jestha @ 5:30 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Jestha @ 7:30 PM</t>
     </r>
   </si>
 </sst>
@@ -415,13 +445,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F16"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -756,6 +786,28 @@
       <c r="F16" s="1" t="n">
         <f aca="false">B16-D16</f>
         <v>4200</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>8037</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>4259</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>3703</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <f aca="false">B17-C17</f>
+        <v>3778</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <f aca="false">B17-D17</f>
+        <v>4334</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -337,6 +337,36 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Jestha @ 7:30 PM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Jestha @ 9 PM</t>
     </r>
   </si>
 </sst>
@@ -445,13 +475,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -808,6 +838,28 @@
       <c r="F17" s="1" t="n">
         <f aca="false">B17-D17</f>
         <v>4334</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>8248</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>4342</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>3781</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <f aca="false">B18-C18</f>
+        <v>3906</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <f aca="false">B18-D18</f>
+        <v>4467</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve">5/17/2022 5:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/17/2022 7:00</t>
   </si>
 </sst>
 </file>
@@ -231,13 +234,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F29"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -876,6 +879,28 @@
       <c r="F29" s="1" t="n">
         <f aca="false">B29-D29</f>
         <v>4866</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>9711</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>5226</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>4547</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <f aca="false">B30-C30</f>
+        <v>4485</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <f aca="false">B30-D30</f>
+        <v>5164</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t xml:space="preserve">5/17/2022 7:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/17/2022 8:30</t>
   </si>
 </sst>
 </file>
@@ -234,13 +237,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -901,6 +904,28 @@
       <c r="F30" s="1" t="n">
         <f aca="false">B30-D30</f>
         <v>5164</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>10359</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>5515</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>4792</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <f aca="false">B31-C31</f>
+        <v>4844</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <f aca="false">B31-D31</f>
+        <v>5567</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">5/17/2022 8:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/17/2022 10:00</t>
   </si>
 </sst>
 </file>
@@ -237,13 +240,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -926,6 +929,28 @@
       <c r="F31" s="1" t="n">
         <f aca="false">B31-D31</f>
         <v>5567</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>10481</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>5618</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>4868</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <f aca="false">B32-C32</f>
+        <v>4863</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <f aca="false">B32-D32</f>
+        <v>5613</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t xml:space="preserve">5/17/2022 10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/17/2022 10:30</t>
   </si>
 </sst>
 </file>
@@ -240,13 +243,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
+      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -951,6 +954,28 @@
       <c r="F32" s="1" t="n">
         <f aca="false">B32-D32</f>
         <v>5613</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>10797</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>5787</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>5074</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <f aca="false">B33-C33</f>
+        <v>5010</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <f aca="false">B33-D33</f>
+        <v>5723</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t xml:space="preserve">5/17/2022 10:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/17/0202 12:45</t>
   </si>
 </sst>
 </file>
@@ -243,13 +246,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -976,6 +979,28 @@
       <c r="F33" s="1" t="n">
         <f aca="false">B33-D33</f>
         <v>5723</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>10975</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>5908</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>5154</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <f aca="false">B34-C34</f>
+        <v>5067</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <f aca="false">B34-D34</f>
+        <v>5821</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">5/17/0202 12:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/17/2022 14:00</t>
   </si>
 </sst>
 </file>
@@ -246,13 +249,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -1001,6 +1004,28 @@
       <c r="F34" s="1" t="n">
         <f aca="false">B34-D34</f>
         <v>5821</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>11434</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>6258</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>5408</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <f aca="false">B35-C35</f>
+        <v>5176</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <f aca="false">B35-D35</f>
+        <v>6026</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t xml:space="preserve">5/17/2022 14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/17/2022 16:00</t>
   </si>
 </sst>
 </file>
@@ -249,13 +252,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -1026,6 +1029,28 @@
       <c r="F35" s="1" t="n">
         <f aca="false">B35-D35</f>
         <v>6026</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>11730</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>6309</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>5530</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <f aca="false">B36-C36</f>
+        <v>5421</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <f aca="false">B36-D36</f>
+        <v>6200</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t xml:space="preserve">5/17/2022 16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/17/2022 18:30</t>
   </si>
 </sst>
 </file>
@@ -252,13 +255,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -1036,21 +1039,43 @@
         <v>40</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>11730</v>
+        <v>11777</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>6309</v>
+        <v>6323</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>5530</v>
+        <v>5548</v>
       </c>
       <c r="E36" s="1" t="n">
         <f aca="false">B36-C36</f>
-        <v>5421</v>
+        <v>5454</v>
       </c>
       <c r="F36" s="1" t="n">
         <f aca="false">B36-D36</f>
-        <v>6200</v>
+        <v>6229</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>12553</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>6706</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>5957</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <f aca="false">B37-C37</f>
+        <v>5847</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <f aca="false">B37-D37</f>
+        <v>6596</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -146,6 +146,24 @@
   </si>
   <si>
     <t xml:space="preserve">5/17/2022 18:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/17/2022 19:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/17/2022 21:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/17/2022 22:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/17/2022 23:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/18/2022 1:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/18/2022 6:00</t>
   </si>
 </sst>
 </file>
@@ -255,13 +273,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
+      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -1076,6 +1094,138 @@
       <c r="F37" s="1" t="n">
         <f aca="false">B37-D37</f>
         <v>6596</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>12892</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>6885</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>6109</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <f aca="false">B38-C38</f>
+        <v>6007</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <f aca="false">B38-D38</f>
+        <v>6783</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>13189</v>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>7106</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>6247</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <f aca="false">B39-C39</f>
+        <v>6083</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <f aca="false">B39-D39</f>
+        <v>6942</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>13487</v>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>7266</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>6399</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <f aca="false">B40-C40</f>
+        <v>6221</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <f aca="false">B40-D40</f>
+        <v>7088</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>13661</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>7326</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>6471</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <f aca="false">B41-C41</f>
+        <v>6335</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <f aca="false">B41-D41</f>
+        <v>7190</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>13761</v>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>7377</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>6535</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <f aca="false">B42-C42</f>
+        <v>6384</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <f aca="false">B42-D42</f>
+        <v>7226</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>15403</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>8080</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>7192</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <f aca="false">B43-C43</f>
+        <v>7323</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <f aca="false">B43-D43</f>
+        <v>8211</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t xml:space="preserve">5/18/2022 6:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/18/2022 8:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/18/2022 9:55</t>
   </si>
 </sst>
 </file>
@@ -273,13 +279,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -1226,6 +1232,50 @@
       <c r="F43" s="1" t="n">
         <f aca="false">B43-D43</f>
         <v>8211</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>15775</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>8108</v>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>7493</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <f aca="false">B44-C44</f>
+        <v>7667</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <f aca="false">B44-D44</f>
+        <v>8282</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>15944</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>8304</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>7423</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <f aca="false">B45-C45</f>
+        <v>7640</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <f aca="false">B45-D45</f>
+        <v>8521</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -169,7 +169,16 @@
     <t xml:space="preserve">5/18/2022 8:15</t>
   </si>
   <si>
-    <t xml:space="preserve">5/18/2022 9:55</t>
+    <t xml:space="preserve">5/18/2022 10:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/18/2022 11:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/18/2022 12:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/18/2022 13:50</t>
   </si>
 </sst>
 </file>
@@ -279,13 +288,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F57" activeCellId="0" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -1261,21 +1270,87 @@
         <v>49</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>15944</v>
+        <v>16142</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>8304</v>
+        <v>8384</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>7423</v>
+        <v>7545</v>
       </c>
       <c r="E45" s="1" t="n">
         <f aca="false">B45-C45</f>
-        <v>7640</v>
+        <v>7758</v>
       </c>
       <c r="F45" s="1" t="n">
         <f aca="false">B45-D45</f>
-        <v>8521</v>
+        <v>8597</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>16617</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>8595</v>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>7729</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <f aca="false">B46-C46</f>
+        <v>8022</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <f aca="false">B46-D46</f>
+        <v>8888</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>16719</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>8647</v>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>7797</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <f aca="false">B47-C47</f>
+        <v>8072</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <f aca="false">B47-D47</f>
+        <v>8922</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>16943</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>8778</v>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>8267</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <f aca="false">B48-C48</f>
+        <v>8165</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <f aca="false">B48-D48</f>
+        <v>8676</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t xml:space="preserve">5/18/2022 13:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/18/2022 14:01</t>
   </si>
 </sst>
 </file>
@@ -288,13 +291,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F57" activeCellId="0" sqref="F57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G46" activeCellId="0" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -1342,7 +1345,7 @@
         <v>8778</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>8267</v>
+        <v>7935</v>
       </c>
       <c r="E48" s="1" t="n">
         <f aca="false">B48-C48</f>
@@ -1350,7 +1353,29 @@
       </c>
       <c r="F48" s="1" t="n">
         <f aca="false">B48-D48</f>
-        <v>8676</v>
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>17031</v>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>8876</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>7941</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <f aca="false">B49-C49</f>
+        <v>8155</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <f aca="false">B49-D49</f>
+        <v>9090</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -181,7 +181,7 @@
     <t xml:space="preserve">5/18/2022 13:50</t>
   </si>
   <si>
-    <t xml:space="preserve">5/18/2022 14:01</t>
+    <t xml:space="preserve">5/18/2022 14:52</t>
   </si>
 </sst>
 </file>
@@ -293,11 +293,11 @@
   </sheetPr>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G46" activeCellId="0" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -1290,7 +1290,7 @@
         <v>8597</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
@@ -1361,21 +1361,21 @@
         <v>53</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>17031</v>
+        <v>17558</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>8876</v>
+        <v>9056</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>7941</v>
+        <v>8382</v>
       </c>
       <c r="E49" s="1" t="n">
         <f aca="false">B49-C49</f>
-        <v>8155</v>
+        <v>8502</v>
       </c>
       <c r="F49" s="1" t="n">
         <f aca="false">B49-D49</f>
-        <v>9090</v>
+        <v>9176</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -40,6 +40,12 @@
     <t xml:space="preserve">bminuss</t>
   </si>
   <si>
+    <t xml:space="preserve">ratiobtok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratiobtos</t>
+  </si>
+  <si>
     <t xml:space="preserve">5/14/2022 17:05</t>
   </si>
   <si>
@@ -182,6 +188,15 @@
   </si>
   <si>
     <t xml:space="preserve">5/18/2022 14:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/18/2022 15:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/18/2022 17:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/18/2022 17:33</t>
   </si>
 </sst>
 </file>
@@ -291,13 +306,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G46" activeCellId="0" sqref="G46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G57" activeCellId="0" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -321,10 +336,16 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>480</v>
@@ -343,10 +364,18 @@
         <f aca="false">B2-D2</f>
         <v>280</v>
       </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">B2/C2</f>
+        <v>1.71428571428571</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">B2/D2</f>
+        <v>2.4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>583</v>
@@ -365,10 +394,18 @@
         <f aca="false">B3-D3</f>
         <v>243</v>
       </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">B3/C3</f>
+        <v>1.19467213114754</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">B3/D3</f>
+        <v>1.71470588235294</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>1228</v>
@@ -387,10 +424,18 @@
         <f aca="false">B4-D4</f>
         <v>529</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">B4/C4</f>
+        <v>1.40987370838117</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">B4/D4</f>
+        <v>1.75679542203147</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>1587</v>
@@ -409,10 +454,18 @@
         <f aca="false">B5-D5</f>
         <v>765</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">B5/C5</f>
+        <v>1.7891770011274</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">B5/D5</f>
+        <v>1.93065693430657</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>3110</v>
@@ -431,10 +484,18 @@
         <f aca="false">B6-D6</f>
         <v>1508</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">B6/C6</f>
+        <v>1.89057750759878</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">B6/D6</f>
+        <v>1.94132334581773</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>3532</v>
@@ -453,10 +514,18 @@
         <f aca="false">B7-D7</f>
         <v>1864</v>
       </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">B7/C7</f>
+        <v>1.90301724137931</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">B7/D7</f>
+        <v>2.11750599520384</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>3834</v>
@@ -475,10 +544,18 @@
         <f aca="false">B8-D8</f>
         <v>2032</v>
       </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">B8/C8</f>
+        <v>1.92084168336673</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">B8/D8</f>
+        <v>2.1276359600444</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>4139</v>
@@ -497,10 +574,18 @@
         <f aca="false">B9-D9</f>
         <v>2205</v>
       </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">B9/C9</f>
+        <v>1.92690875232775</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">B9/D9</f>
+        <v>2.14012409513961</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>4259</v>
@@ -519,10 +604,18 @@
         <f aca="false">B10-D10</f>
         <v>2241</v>
       </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">B10/C10</f>
+        <v>1.90388913723737</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">B10/D10</f>
+        <v>2.11050545094153</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>4404</v>
@@ -541,10 +634,18 @@
         <f aca="false">B11-D11</f>
         <v>2334</v>
       </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">B11/C11</f>
+        <v>1.91228831958315</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <f aca="false">B11/D11</f>
+        <v>2.12753623188406</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>4646</v>
@@ -563,10 +664,18 @@
         <f aca="false">B12-D12</f>
         <v>2422</v>
       </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">B12/C12</f>
+        <v>1.93180873180873</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">B12/D12</f>
+        <v>2.08902877697842</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>4762</v>
@@ -585,10 +694,18 @@
         <f aca="false">B13-D13</f>
         <v>2493</v>
       </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">B13/C13</f>
+        <v>1.88146977479257</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <f aca="false">B13/D13</f>
+        <v>2.09872190392243</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>5214</v>
@@ -607,10 +724,18 @@
         <f aca="false">B14-D14</f>
         <v>2744</v>
       </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">B14/C14</f>
+        <v>1.84110169491525</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <f aca="false">B14/D14</f>
+        <v>2.11093117408907</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>5446</v>
@@ -629,10 +754,18 @@
         <f aca="false">B15-D15</f>
         <v>2869</v>
       </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">B15/C15</f>
+        <v>1.84485094850949</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">B15/D15</f>
+        <v>2.11331005044626</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>5665</v>
@@ -651,10 +784,18 @@
         <f aca="false">B16-D16</f>
         <v>3025</v>
       </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">B16/C16</f>
+        <v>1.85981615233093</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <f aca="false">B16/D16</f>
+        <v>2.14583333333333</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>6207</v>
@@ -673,10 +814,18 @@
         <f aca="false">B17-D17</f>
         <v>3322</v>
       </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">B17/C17</f>
+        <v>1.91396854764107</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <f aca="false">B17/D17</f>
+        <v>2.15147313691508</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>6486</v>
@@ -695,10 +844,18 @@
         <f aca="false">B18-D18</f>
         <v>3477</v>
       </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">B18/C18</f>
+        <v>1.90038089657193</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <f aca="false">B18/D18</f>
+        <v>2.1555333998006</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>6893</v>
@@ -717,10 +874,18 @@
         <f aca="false">B19-D19</f>
         <v>3685</v>
       </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">B19/C19</f>
+        <v>1.89160263446762</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <f aca="false">B19/D19</f>
+        <v>2.14869077306733</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>7089</v>
@@ -739,10 +904,18 @@
         <f aca="false">B20-D20</f>
         <v>3789</v>
       </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">B20/C20</f>
+        <v>1.89241857981847</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">B20/D20</f>
+        <v>2.14818181818182</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>7339</v>
@@ -761,10 +934,18 @@
         <f aca="false">B21-D21</f>
         <v>3981</v>
       </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">B21/C21</f>
+        <v>1.90031071983428</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <f aca="false">B21/D21</f>
+        <v>2.18552709946397</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>7534</v>
@@ -783,10 +964,18 @@
         <f aca="false">B22-D22</f>
         <v>4048</v>
       </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">B22/C22</f>
+        <v>1.89201406328478</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <f aca="false">B22/D22</f>
+        <v>2.16121629374641</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>7771</v>
@@ -805,10 +994,18 @@
         <f aca="false">B23-D23</f>
         <v>4198</v>
       </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">B23/C23</f>
+        <v>1.88937515195721</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <f aca="false">B23/D23</f>
+        <v>2.1749230338651</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>8037</v>
@@ -827,10 +1024,18 @@
         <f aca="false">B24-D24</f>
         <v>4334</v>
       </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">B24/C24</f>
+        <v>1.88706269077248</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <f aca="false">B24/D24</f>
+        <v>2.17040237645153</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>8308</v>
@@ -849,10 +1054,18 @@
         <f aca="false">B25-D25</f>
         <v>4489</v>
       </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">B25/C25</f>
+        <v>1.89248291571754</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <f aca="false">B25/D25</f>
+        <v>2.17543859649123</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>8420</v>
@@ -871,10 +1084,18 @@
         <f aca="false">B26-D26</f>
         <v>4538</v>
       </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">B26/C26</f>
+        <v>1.89810640216411</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <f aca="false">B26/D26</f>
+        <v>2.16898505924781</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>8620</v>
@@ -893,10 +1114,18 @@
         <f aca="false">B27-D27</f>
         <v>4640</v>
       </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">B27/C27</f>
+        <v>1.89867841409692</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <f aca="false">B27/D27</f>
+        <v>2.16582914572864</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>8958</v>
@@ -915,10 +1144,18 @@
         <f aca="false">B28-D28</f>
         <v>4765</v>
       </c>
+      <c r="G28" s="0" t="n">
+        <f aca="false">B28/C28</f>
+        <v>1.86547271970012</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <f aca="false">B28/D28</f>
+        <v>2.1364178392559</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3" t="n">
         <v>9186</v>
@@ -937,10 +1174,18 @@
         <f aca="false">B29-D29</f>
         <v>4866</v>
       </c>
+      <c r="G29" s="0" t="n">
+        <f aca="false">B29/C29</f>
+        <v>1.85650767987065</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <f aca="false">B29/D29</f>
+        <v>2.12638888888889</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>9711</v>
@@ -959,10 +1204,18 @@
         <f aca="false">B30-D30</f>
         <v>5164</v>
       </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">B30/C30</f>
+        <v>1.85820895522388</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <f aca="false">B30/D30</f>
+        <v>2.13569386408621</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>10359</v>
@@ -981,10 +1234,18 @@
         <f aca="false">B31-D31</f>
         <v>5567</v>
       </c>
+      <c r="G31" s="0" t="n">
+        <f aca="false">B31/C31</f>
+        <v>1.87833182230281</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <f aca="false">B31/D31</f>
+        <v>2.16172787979967</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>10481</v>
@@ -1003,10 +1264,18 @@
         <f aca="false">B32-D32</f>
         <v>5613</v>
       </c>
+      <c r="G32" s="0" t="n">
+        <f aca="false">B32/C32</f>
+        <v>1.86561053755785</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <f aca="false">B32/D32</f>
+        <v>2.15304026294166</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>10797</v>
@@ -1025,10 +1294,18 @@
         <f aca="false">B33-D33</f>
         <v>5723</v>
       </c>
+      <c r="G33" s="0" t="n">
+        <f aca="false">B33/C33</f>
+        <v>1.86573354069466</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <f aca="false">B33/D33</f>
+        <v>2.12790697674419</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>10975</v>
@@ -1047,10 +1324,18 @@
         <f aca="false">B34-D34</f>
         <v>5821</v>
       </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">B34/C34</f>
+        <v>1.85765064319567</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <f aca="false">B34/D34</f>
+        <v>2.12941404734187</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>11434</v>
@@ -1069,10 +1354,18 @@
         <f aca="false">B35-D35</f>
         <v>6026</v>
       </c>
+      <c r="G35" s="0" t="n">
+        <f aca="false">B35/C35</f>
+        <v>1.82710131032279</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <f aca="false">B35/D35</f>
+        <v>2.11427514792899</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>11777</v>
@@ -1091,10 +1384,18 @@
         <f aca="false">B36-D36</f>
         <v>6229</v>
       </c>
+      <c r="G36" s="0" t="n">
+        <f aca="false">B36/C36</f>
+        <v>1.86256523801993</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <f aca="false">B36/D36</f>
+        <v>2.12274693583273</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>12553</v>
@@ -1113,10 +1414,18 @@
         <f aca="false">B37-D37</f>
         <v>6596</v>
       </c>
+      <c r="G37" s="0" t="n">
+        <f aca="false">B37/C37</f>
+        <v>1.87190575603937</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <f aca="false">B37/D37</f>
+        <v>2.10726875944267</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38" s="3" t="n">
         <v>12892</v>
@@ -1135,10 +1444,18 @@
         <f aca="false">B38-D38</f>
         <v>6783</v>
       </c>
+      <c r="G38" s="0" t="n">
+        <f aca="false">B38/C38</f>
+        <v>1.87247639796659</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <f aca="false">B38/D38</f>
+        <v>2.11032902275331</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>13189</v>
@@ -1157,10 +1474,18 @@
         <f aca="false">B39-D39</f>
         <v>6942</v>
       </c>
+      <c r="G39" s="0" t="n">
+        <f aca="false">B39/C39</f>
+        <v>1.85603715170279</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <f aca="false">B39/D39</f>
+        <v>2.11125340163278</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40" s="3" t="n">
         <v>13487</v>
@@ -1179,10 +1504,18 @@
         <f aca="false">B40-D40</f>
         <v>7088</v>
       </c>
+      <c r="G40" s="0" t="n">
+        <f aca="false">B40/C40</f>
+        <v>1.85617946600606</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <f aca="false">B40/D40</f>
+        <v>2.1076730739178</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41" s="3" t="n">
         <v>13661</v>
@@ -1201,10 +1534,18 @@
         <f aca="false">B41-D41</f>
         <v>7190</v>
       </c>
+      <c r="G41" s="0" t="n">
+        <f aca="false">B41/C41</f>
+        <v>1.86472836472836</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <f aca="false">B41/D41</f>
+        <v>2.11111111111111</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42" s="3" t="n">
         <v>13761</v>
@@ -1223,10 +1564,18 @@
         <f aca="false">B42-D42</f>
         <v>7226</v>
       </c>
+      <c r="G42" s="0" t="n">
+        <f aca="false">B42/C42</f>
+        <v>1.86539243594957</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <f aca="false">B42/D42</f>
+        <v>2.10573833205815</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43" s="3" t="n">
         <v>15403</v>
@@ -1245,10 +1594,18 @@
         <f aca="false">B43-D43</f>
         <v>8211</v>
       </c>
+      <c r="G43" s="0" t="n">
+        <f aca="false">B43/C43</f>
+        <v>1.90631188118812</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <f aca="false">B43/D43</f>
+        <v>2.1416852057842</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44" s="3" t="n">
         <v>15775</v>
@@ -1267,10 +1624,18 @@
         <f aca="false">B44-D44</f>
         <v>8282</v>
       </c>
+      <c r="G44" s="0" t="n">
+        <f aca="false">B44/C44</f>
+        <v>1.94560927479033</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <f aca="false">B44/D44</f>
+        <v>2.10529827839317</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45" s="3" t="n">
         <v>16142</v>
@@ -1289,10 +1654,18 @@
         <f aca="false">B45-D45</f>
         <v>8597</v>
       </c>
+      <c r="G45" s="0" t="n">
+        <f aca="false">B45/C45</f>
+        <v>1.92533396946565</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <f aca="false">B45/D45</f>
+        <v>2.13943008614977</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" s="3" t="n">
         <v>16617</v>
@@ -1311,10 +1684,18 @@
         <f aca="false">B46-D46</f>
         <v>8888</v>
       </c>
+      <c r="G46" s="0" t="n">
+        <f aca="false">B46/C46</f>
+        <v>1.93333333333333</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <f aca="false">B46/D46</f>
+        <v>2.14995471600466</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47" s="3" t="n">
         <v>16719</v>
@@ -1333,10 +1714,18 @@
         <f aca="false">B47-D47</f>
         <v>8922</v>
       </c>
+      <c r="G47" s="0" t="n">
+        <f aca="false">B47/C47</f>
+        <v>1.93350294899965</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <f aca="false">B47/D47</f>
+        <v>2.14428626394767</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48" s="3" t="n">
         <v>16943</v>
@@ -1355,10 +1744,18 @@
         <f aca="false">B48-D48</f>
         <v>9008</v>
       </c>
+      <c r="G48" s="0" t="n">
+        <f aca="false">B48/C48</f>
+        <v>1.93016632490317</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <f aca="false">B48/D48</f>
+        <v>2.13522369250158</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49" s="3" t="n">
         <v>17558</v>
@@ -1376,6 +1773,104 @@
       <c r="F49" s="1" t="n">
         <f aca="false">B49-D49</f>
         <v>9176</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <f aca="false">B49/C49</f>
+        <v>1.93882508833922</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <f aca="false">B49/D49</f>
+        <v>2.0947267955142</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>17643</v>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>9110</v>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>8167</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <f aca="false">B50-C50</f>
+        <v>8533</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <f aca="false">B50-D50</f>
+        <v>9476</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <f aca="false">B50/C50</f>
+        <v>1.93666300768386</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <f aca="false">B50/D50</f>
+        <v>2.16027917227868</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>18035</v>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>9372</v>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>8358</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <f aca="false">B51-C51</f>
+        <v>8663</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <f aca="false">B51-D51</f>
+        <v>9677</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <f aca="false">B51/C51</f>
+        <v>1.92434912505335</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <f aca="false">B51/D51</f>
+        <v>2.15781287389328</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>18165</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>9441</v>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>8435</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <f aca="false">B52-C52</f>
+        <v>8724</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <f aca="false">B52-D52</f>
+        <v>9730</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <f aca="false">B52/C52</f>
+        <v>1.9240546552272</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <f aca="false">B52/D52</f>
+        <v>2.15352697095436</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -197,6 +197,15 @@
   </si>
   <si>
     <t xml:space="preserve">5/18/2022 17:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/18/2022 18:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/18/2022 20:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/18/2022 21:01</t>
   </si>
 </sst>
 </file>
@@ -306,13 +315,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G57" activeCellId="0" sqref="G57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -1871,6 +1880,96 @@
       <c r="H52" s="0" t="n">
         <f aca="false">B52/D52</f>
         <v>2.15352697095436</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>18237</v>
+      </c>
+      <c r="C53" s="3" t="n">
+        <v>9517</v>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>8537</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <f aca="false">B53-C53</f>
+        <v>8720</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <f aca="false">B53-D53</f>
+        <v>9700</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <f aca="false">B53/C53</f>
+        <v>1.91625512241253</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <f aca="false">B53/D53</f>
+        <v>2.13623052594588</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>18795</v>
+      </c>
+      <c r="C54" s="3" t="n">
+        <v>9596</v>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>9172</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <f aca="false">B54-C54</f>
+        <v>9199</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <f aca="false">B54-D54</f>
+        <v>9623</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <f aca="false">B54/C54</f>
+        <v>1.95862859524802</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <f aca="false">B54/D54</f>
+        <v>2.04917139119058</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>18878</v>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>9671</v>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>9172</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <f aca="false">B55-C55</f>
+        <v>9207</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <f aca="false">B55-D55</f>
+        <v>9706</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <f aca="false">B55/C55</f>
+        <v>1.95202150760004</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <f aca="false">B55/D55</f>
+        <v>2.05822067160925</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -205,7 +205,16 @@
     <t xml:space="preserve">5/18/2022 20:41</t>
   </si>
   <si>
-    <t xml:space="preserve">5/18/2022 21:01</t>
+    <t xml:space="preserve">5/18/2022 21:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/18/2022 23:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/19/2022 1:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/19/2022 6:00</t>
   </si>
 </sst>
 </file>
@@ -315,13 +324,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G67" activeCellId="0" sqref="G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -1947,29 +1956,119 @@
         <v>61</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>18878</v>
+        <v>19081</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>9671</v>
+        <v>9827</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>9172</v>
+        <v>8893</v>
       </c>
       <c r="E55" s="1" t="n">
         <f aca="false">B55-C55</f>
-        <v>9207</v>
+        <v>9254</v>
       </c>
       <c r="F55" s="1" t="n">
         <f aca="false">B55-D55</f>
-        <v>9706</v>
+        <v>10188</v>
       </c>
       <c r="G55" s="0" t="n">
         <f aca="false">B55/C55</f>
-        <v>1.95202150760004</v>
+        <v>1.94169125877684</v>
       </c>
       <c r="H55" s="0" t="n">
         <f aca="false">B55/D55</f>
-        <v>2.05822067160925</v>
+        <v>2.14562015068031</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>19621</v>
+      </c>
+      <c r="C56" s="3" t="n">
+        <v>10059</v>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>9168</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <f aca="false">B56-C56</f>
+        <v>9562</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <f aca="false">B56-D56</f>
+        <v>10453</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <f aca="false">B56/C56</f>
+        <v>1.95059151009047</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <f aca="false">B56/D56</f>
+        <v>2.14016143106457</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>19763</v>
+      </c>
+      <c r="C57" s="3" t="n">
+        <v>10168</v>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>9261</v>
+      </c>
+      <c r="E57" s="1" t="n">
+        <f aca="false">B57-C57</f>
+        <v>9595</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <f aca="false">B57-D57</f>
+        <v>10502</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <f aca="false">B57/C57</f>
+        <v>1.94364673485445</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <f aca="false">B57/D57</f>
+        <v>2.13400280747219</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>21111</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>10998</v>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>10173</v>
+      </c>
+      <c r="E58" s="1" t="n">
+        <f aca="false">B58-C58</f>
+        <v>10113</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <f aca="false">B58-D58</f>
+        <v>10938</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <f aca="false">B58/C58</f>
+        <v>1.91953082378614</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <f aca="false">B58/D58</f>
+        <v>2.07519905632557</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t xml:space="preserve">5/19/2022 6:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/19/2022 8:20</t>
   </si>
 </sst>
 </file>
@@ -324,13 +327,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G67" activeCellId="0" sqref="G67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I54" activeCellId="0" sqref="I54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -2071,6 +2074,37 @@
         <v>2.07519905632557</v>
       </c>
     </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>21527</v>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>10998</v>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>10218</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <f aca="false">B59-C59</f>
+        <v>10529</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <f aca="false">B59-D59</f>
+        <v>11309</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <f aca="false">B59/C59</f>
+        <v>1.9573558828878</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <f aca="false">B59/D59</f>
+        <v>2.10677236249755</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -217,7 +217,7 @@
     <t xml:space="preserve">5/19/2022 6:00</t>
   </si>
   <si>
-    <t xml:space="preserve">5/19/2022 8:20</t>
+    <t xml:space="preserve">5/19/2022 10:00</t>
   </si>
 </sst>
 </file>
@@ -330,10 +330,10 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I54" activeCellId="0" sqref="I54"/>
+      <selection pane="topLeft" activeCell="I56" activeCellId="0" sqref="I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -2079,29 +2079,29 @@
         <v>65</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>21527</v>
+        <v>21815</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>10998</v>
+        <v>11124</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>10218</v>
+        <v>10341</v>
       </c>
       <c r="E59" s="1" t="n">
         <f aca="false">B59-C59</f>
-        <v>10529</v>
+        <v>10691</v>
       </c>
       <c r="F59" s="1" t="n">
         <f aca="false">B59-D59</f>
-        <v>11309</v>
+        <v>11474</v>
       </c>
       <c r="G59" s="0" t="n">
         <f aca="false">B59/C59</f>
-        <v>1.9573558828878</v>
+        <v>1.96107515282273</v>
       </c>
       <c r="H59" s="0" t="n">
         <f aca="false">B59/D59</f>
-        <v>2.10677236249755</v>
+        <v>2.10956387196596</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t xml:space="preserve">5/19/2022 10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/19/2022 12:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/19/2022 12:37</t>
   </si>
 </sst>
 </file>
@@ -329,11 +335,11 @@
   </sheetPr>
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I56" activeCellId="0" sqref="I56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G66" activeCellId="0" sqref="G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -2102,6 +2108,66 @@
       <c r="H59" s="0" t="n">
         <f aca="false">B59/D59</f>
         <v>2.10956387196596</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>22043</v>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>11308</v>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>10539</v>
+      </c>
+      <c r="E60" s="1" t="n">
+        <f aca="false">B60-C60</f>
+        <v>10735</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <f aca="false">B60-D60</f>
+        <v>11504</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <f aca="false">B60/C60</f>
+        <v>1.94932790944464</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <f aca="false">B60/D60</f>
+        <v>2.09156466457918</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>22869</v>
+      </c>
+      <c r="C61" s="3" t="n">
+        <v>11769</v>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>10986</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <f aca="false">B61-C61</f>
+        <v>11100</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <f aca="false">B61-D61</f>
+        <v>11883</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <f aca="false">B61/C61</f>
+        <v>1.94315574815192</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <f aca="false">B61/D61</f>
+        <v>2.08164937192791</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -224,6 +224,15 @@
   </si>
   <si>
     <t xml:space="preserve">5/19/2022 12:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/19/2022 13:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/19/2022 14:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/19/2022 15:05</t>
   </si>
 </sst>
 </file>
@@ -335,11 +344,11 @@
   </sheetPr>
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G66" activeCellId="0" sqref="G66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G69" activeCellId="0" sqref="G69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -2168,6 +2177,96 @@
       <c r="H61" s="0" t="n">
         <f aca="false">B61/D61</f>
         <v>2.08164937192791</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>23013</v>
+      </c>
+      <c r="C62" s="3" t="n">
+        <v>11833</v>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>11067</v>
+      </c>
+      <c r="E62" s="1" t="n">
+        <f aca="false">B62-C62</f>
+        <v>11180</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <f aca="false">B62-D62</f>
+        <v>11946</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <f aca="false">B62/C62</f>
+        <v>1.94481534691118</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <f aca="false">B62/D62</f>
+        <v>2.0794253185145</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>23191</v>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>12250</v>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>11274</v>
+      </c>
+      <c r="E63" s="1" t="n">
+        <f aca="false">B63-C63</f>
+        <v>10941</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <f aca="false">B63-D63</f>
+        <v>11917</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <f aca="false">B63/C63</f>
+        <v>1.89314285714286</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <f aca="false">B63/D63</f>
+        <v>2.05703388327124</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>23633</v>
+      </c>
+      <c r="C64" s="3" t="n">
+        <v>12423</v>
+      </c>
+      <c r="D64" s="3" t="n">
+        <v>11534</v>
+      </c>
+      <c r="E64" s="1" t="n">
+        <f aca="false">B64-C64</f>
+        <v>11210</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <f aca="false">B64-D64</f>
+        <v>12099</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <f aca="false">B64/C64</f>
+        <v>1.90235852853578</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <f aca="false">B64/D64</f>
+        <v>2.04898560776834</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -233,6 +233,21 @@
   </si>
   <si>
     <t xml:space="preserve">5/19/2022 15:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/19/2022 19:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/19/2022 21:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/19/2022 23:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/20/2022 1:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/20/2022 2:56</t>
   </si>
 </sst>
 </file>
@@ -342,13 +357,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G69" activeCellId="0" sqref="G69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -2269,7 +2284,156 @@
         <v>2.04898560776834</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>24335</v>
+      </c>
+      <c r="C65" s="3" t="n">
+        <v>12995</v>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>12093</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <f aca="false">B65-C65</f>
+        <v>11340</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <f aca="false">B65-D65</f>
+        <v>12242</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <f aca="false">B65/C65</f>
+        <v>1.87264332435552</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <f aca="false">B65/D65</f>
+        <v>2.01232117754073</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>25057</v>
+      </c>
+      <c r="C66" s="3" t="n">
+        <v>13036</v>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>12365</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <f aca="false">B66-C66</f>
+        <v>12021</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <f aca="false">B66-D66</f>
+        <v>12692</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <f aca="false">B66/C66</f>
+        <v>1.92213869285057</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <f aca="false">B66/D66</f>
+        <v>2.02644561261626</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>25639</v>
+      </c>
+      <c r="C67" s="3" t="n">
+        <v>13449</v>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>12871</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <f aca="false">B67-C67</f>
+        <v>12190</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <f aca="false">B67-D67</f>
+        <v>12768</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <f aca="false">B67/C67</f>
+        <v>1.9063870919771</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <f aca="false">B67/D67</f>
+        <v>1.99199751379069</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>25777</v>
+      </c>
+      <c r="C68" s="3" t="n">
+        <v>13511</v>
+      </c>
+      <c r="D68" s="3" t="n">
+        <v>12948</v>
+      </c>
+      <c r="E68" s="1" t="n">
+        <f aca="false">B68-C68</f>
+        <v>12266</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <f aca="false">B68-D68</f>
+        <v>12829</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <f aca="false">B68/C68</f>
+        <v>1.90785286063208</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <f aca="false">B68/D68</f>
+        <v>1.9908093914118</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>26223</v>
+      </c>
+      <c r="C69" s="3" t="n">
+        <v>14132</v>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>13823</v>
+      </c>
+      <c r="E69" s="1" t="n">
+        <f aca="false">B69-C69</f>
+        <v>12091</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <f aca="false">B69-D69</f>
+        <v>12400</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <f aca="false">B69/C69</f>
+        <v>1.85557599773564</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <f aca="false">B69/D69</f>
+        <v>1.89705563191782</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t xml:space="preserve">5/20/2022 2:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/20/2022 7:32</t>
   </si>
 </sst>
 </file>
@@ -357,13 +360,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H69"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -2432,6 +2435,36 @@
       <c r="H69" s="0" t="n">
         <f aca="false">B69/D69</f>
         <v>1.89705563191782</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>26942</v>
+      </c>
+      <c r="C70" s="3" t="n">
+        <v>14185</v>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>13579</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <f aca="false">B70-C70</f>
+        <v>12757</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <f aca="false">B70-D70</f>
+        <v>13363</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <f aca="false">B70/C70</f>
+        <v>1.89933027846317</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <f aca="false">B70/D70</f>
+        <v>1.98409308491052</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t xml:space="preserve">5/20/2022 7:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/20/2022 10:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/20/2022 11:04</t>
   </si>
 </sst>
 </file>
@@ -360,13 +366,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -2465,6 +2471,66 @@
       <c r="H70" s="0" t="n">
         <f aca="false">B70/D70</f>
         <v>1.98409308491052</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>27967</v>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>14782</v>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>14439</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <f aca="false">B71-C71</f>
+        <v>13185</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <f aca="false">B71-D71</f>
+        <v>13528</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <f aca="false">B71/C71</f>
+        <v>1.89196319848464</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <f aca="false">B71/D71</f>
+        <v>1.93690698801856</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>28137</v>
+      </c>
+      <c r="C72" s="3" t="n">
+        <v>14866</v>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>14478</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <f aca="false">B72-C72</f>
+        <v>13271</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <f aca="false">B72-D72</f>
+        <v>13659</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <f aca="false">B72/C72</f>
+        <v>1.89270819319252</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <f aca="false">B72/D72</f>
+        <v>1.94343141317862</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t xml:space="preserve">5/20/2022 11:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/20/2022 12:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/20/2022 13:02</t>
   </si>
 </sst>
 </file>
@@ -366,13 +372,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -2531,6 +2537,66 @@
       <c r="H72" s="0" t="n">
         <f aca="false">B72/D72</f>
         <v>1.94343141317862</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>28498</v>
+      </c>
+      <c r="C73" s="3" t="n">
+        <v>14903</v>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>14503</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <f aca="false">B73-C73</f>
+        <v>13595</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <f aca="false">B73-D73</f>
+        <v>13995</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <f aca="false">B73/C73</f>
+        <v>1.9122324364222</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <f aca="false">B73/D73</f>
+        <v>1.96497276425567</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>28538</v>
+      </c>
+      <c r="C74" s="3" t="n">
+        <v>14944</v>
+      </c>
+      <c r="D74" s="3" t="n">
+        <v>14654</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <f aca="false">B74-C74</f>
+        <v>13594</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <f aca="false">B74-D74</f>
+        <v>13884</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <f aca="false">B74/C74</f>
+        <v>1.90966274089936</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <f aca="false">B74/D74</f>
+        <v>1.947454619899</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -257,9 +257,6 @@
   </si>
   <si>
     <t xml:space="preserve">5/20/2022 11:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/2022 12:57</t>
   </si>
   <si>
     <t xml:space="preserve">5/20/2022 13:02</t>
@@ -372,13 +369,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H74"/>
+      <selection pane="topLeft" activeCell="E72" activeCellId="0" sqref="E72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -2544,58 +2541,28 @@
         <v>79</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>28498</v>
+        <v>28538</v>
       </c>
       <c r="C73" s="3" t="n">
-        <v>14903</v>
+        <v>14944</v>
       </c>
       <c r="D73" s="3" t="n">
-        <v>14503</v>
+        <v>14654</v>
       </c>
       <c r="E73" s="1" t="n">
         <f aca="false">B73-C73</f>
-        <v>13595</v>
+        <v>13594</v>
       </c>
       <c r="F73" s="1" t="n">
         <f aca="false">B73-D73</f>
-        <v>13995</v>
+        <v>13884</v>
       </c>
       <c r="G73" s="0" t="n">
         <f aca="false">B73/C73</f>
-        <v>1.9122324364222</v>
+        <v>1.90966274089936</v>
       </c>
       <c r="H73" s="0" t="n">
         <f aca="false">B73/D73</f>
-        <v>1.96497276425567</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B74" s="3" t="n">
-        <v>28538</v>
-      </c>
-      <c r="C74" s="3" t="n">
-        <v>14944</v>
-      </c>
-      <c r="D74" s="3" t="n">
-        <v>14654</v>
-      </c>
-      <c r="E74" s="1" t="n">
-        <f aca="false">B74-C74</f>
-        <v>13594</v>
-      </c>
-      <c r="F74" s="1" t="n">
-        <f aca="false">B74-D74</f>
-        <v>13884</v>
-      </c>
-      <c r="G74" s="0" t="n">
-        <f aca="false">B74/C74</f>
-        <v>1.90966274089936</v>
-      </c>
-      <c r="H74" s="0" t="n">
-        <f aca="false">B74/D74</f>
         <v>1.947454619899</v>
       </c>
     </row>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">5/14/2022 17:05</t>
   </si>
   <si>
+    <t xml:space="preserve">ss</t>
+  </si>
+  <si>
     <t xml:space="preserve">5/14/2022 21:40</t>
   </si>
   <si>
@@ -259,7 +262,19 @@
     <t xml:space="preserve">5/20/2022 11:04</t>
   </si>
   <si>
-    <t xml:space="preserve">5/20/2022 13:02</t>
+    <t xml:space="preserve">5/20/2022 12:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/20/2022 14:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/20/2022 15:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/20/2022 16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/20/2022 18:48</t>
   </si>
 </sst>
 </file>
@@ -369,13 +384,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E72" activeCellId="0" sqref="E72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -419,9 +434,8 @@
       <c r="D2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <f aca="false">B2-C2</f>
-        <v>200</v>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="n">
         <f aca="false">B2-D2</f>
@@ -438,7 +452,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>583</v>
@@ -468,7 +482,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>1228</v>
@@ -498,7 +512,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>1587</v>
@@ -528,7 +542,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>3110</v>
@@ -558,7 +572,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>3532</v>
@@ -588,7 +602,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>3834</v>
@@ -618,7 +632,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>4139</v>
@@ -648,7 +662,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>4259</v>
@@ -678,7 +692,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>4404</v>
@@ -708,7 +722,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>4646</v>
@@ -738,7 +752,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>4762</v>
@@ -768,7 +782,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>5214</v>
@@ -798,7 +812,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>5446</v>
@@ -828,7 +842,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>5665</v>
@@ -858,7 +872,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>6207</v>
@@ -888,7 +902,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>6486</v>
@@ -918,7 +932,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>6893</v>
@@ -948,7 +962,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>7089</v>
@@ -978,7 +992,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>7339</v>
@@ -1008,7 +1022,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>7534</v>
@@ -1038,7 +1052,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>7771</v>
@@ -1068,7 +1082,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>8037</v>
@@ -1098,7 +1112,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>8308</v>
@@ -1128,7 +1142,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>8420</v>
@@ -1158,7 +1172,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>8620</v>
@@ -1188,7 +1202,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>8958</v>
@@ -1218,7 +1232,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="3" t="n">
         <v>9186</v>
@@ -1248,7 +1262,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>9711</v>
@@ -1278,7 +1292,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>10359</v>
@@ -1308,7 +1322,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>10481</v>
@@ -1338,7 +1352,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>10797</v>
@@ -1368,7 +1382,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>10975</v>
@@ -1398,7 +1412,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>11434</v>
@@ -1428,7 +1442,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>11777</v>
@@ -1458,7 +1472,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>12553</v>
@@ -1488,7 +1502,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="3" t="n">
         <v>12892</v>
@@ -1518,7 +1532,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>13189</v>
@@ -1548,7 +1562,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" s="3" t="n">
         <v>13487</v>
@@ -1578,7 +1592,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" s="3" t="n">
         <v>13661</v>
@@ -1608,7 +1622,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" s="3" t="n">
         <v>13761</v>
@@ -1638,7 +1652,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" s="3" t="n">
         <v>15403</v>
@@ -1668,7 +1682,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" s="3" t="n">
         <v>15775</v>
@@ -1698,7 +1712,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" s="3" t="n">
         <v>16142</v>
@@ -1728,7 +1742,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" s="3" t="n">
         <v>16617</v>
@@ -1758,7 +1772,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B47" s="3" t="n">
         <v>16719</v>
@@ -1788,7 +1802,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" s="3" t="n">
         <v>16943</v>
@@ -1818,7 +1832,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49" s="3" t="n">
         <v>17558</v>
@@ -1848,7 +1862,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B50" s="3" t="n">
         <v>17643</v>
@@ -1878,7 +1892,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" s="3" t="n">
         <v>18035</v>
@@ -1908,7 +1922,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B52" s="3" t="n">
         <v>18165</v>
@@ -1938,7 +1952,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B53" s="3" t="n">
         <v>18237</v>
@@ -1968,7 +1982,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B54" s="3" t="n">
         <v>18795</v>
@@ -1998,7 +2012,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B55" s="3" t="n">
         <v>19081</v>
@@ -2028,7 +2042,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B56" s="3" t="n">
         <v>19621</v>
@@ -2058,7 +2072,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B57" s="3" t="n">
         <v>19763</v>
@@ -2088,7 +2102,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B58" s="3" t="n">
         <v>21111</v>
@@ -2118,7 +2132,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B59" s="3" t="n">
         <v>21815</v>
@@ -2148,7 +2162,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B60" s="3" t="n">
         <v>22043</v>
@@ -2178,7 +2192,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61" s="3" t="n">
         <v>22869</v>
@@ -2208,7 +2222,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B62" s="3" t="n">
         <v>23013</v>
@@ -2238,7 +2252,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B63" s="3" t="n">
         <v>23191</v>
@@ -2268,7 +2282,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B64" s="3" t="n">
         <v>23633</v>
@@ -2298,7 +2312,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B65" s="3" t="n">
         <v>24335</v>
@@ -2328,7 +2342,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B66" s="3" t="n">
         <v>25057</v>
@@ -2358,7 +2372,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B67" s="3" t="n">
         <v>25639</v>
@@ -2388,7 +2402,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B68" s="3" t="n">
         <v>25777</v>
@@ -2418,7 +2432,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B69" s="3" t="n">
         <v>26223</v>
@@ -2448,7 +2462,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B70" s="3" t="n">
         <v>26942</v>
@@ -2478,7 +2492,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B71" s="3" t="n">
         <v>27967</v>
@@ -2508,7 +2522,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B72" s="3" t="n">
         <v>28137</v>
@@ -2538,32 +2552,152 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>28538</v>
+        <v>28498</v>
       </c>
       <c r="C73" s="3" t="n">
-        <v>14944</v>
+        <v>14903</v>
       </c>
       <c r="D73" s="3" t="n">
-        <v>14654</v>
+        <v>14503</v>
       </c>
       <c r="E73" s="1" t="n">
         <f aca="false">B73-C73</f>
-        <v>13594</v>
+        <v>13595</v>
       </c>
       <c r="F73" s="1" t="n">
         <f aca="false">B73-D73</f>
-        <v>13884</v>
+        <v>13995</v>
       </c>
       <c r="G73" s="0" t="n">
         <f aca="false">B73/C73</f>
-        <v>1.90966274089936</v>
+        <v>1.9122324364222</v>
       </c>
       <c r="H73" s="0" t="n">
         <f aca="false">B73/D73</f>
-        <v>1.947454619899</v>
+        <v>1.96497276425567</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>28973</v>
+      </c>
+      <c r="C74" s="3" t="n">
+        <v>15348</v>
+      </c>
+      <c r="D74" s="3" t="n">
+        <v>14873</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <f aca="false">B74-C74</f>
+        <v>13625</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <f aca="false">B74-D74</f>
+        <v>14100</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <f aca="false">B74/C74</f>
+        <v>1.88773781600209</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <f aca="false">B74/D74</f>
+        <v>1.94802662542863</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>29106</v>
+      </c>
+      <c r="C75" s="3" t="n">
+        <v>15390</v>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>14931</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <f aca="false">B75-C75</f>
+        <v>13716</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <f aca="false">B75-D75</f>
+        <v>14175</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <f aca="false">B75/C75</f>
+        <v>1.89122807017544</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <f aca="false">B75/D75</f>
+        <v>1.94936708860759</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>29586</v>
+      </c>
+      <c r="C76" s="3" t="n">
+        <v>15721</v>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>15230</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <f aca="false">B76-C76</f>
+        <v>13865</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <f aca="false">B76-D76</f>
+        <v>14356</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <f aca="false">B76/C76</f>
+        <v>1.88194135233128</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <f aca="false">B76/D76</f>
+        <v>1.94261326329613</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" s="3" t="n">
+        <v>29923</v>
+      </c>
+      <c r="C77" s="3" t="n">
+        <v>15884</v>
+      </c>
+      <c r="D77" s="3" t="n">
+        <v>15410</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <f aca="false">B77-C77</f>
+        <v>14039</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <f aca="false">B77-D77</f>
+        <v>14513</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <f aca="false">B77/C77</f>
+        <v>1.88384537899773</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <f aca="false">B77/D77</f>
+        <v>1.94179104477612</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -49,9 +49,6 @@
     <t xml:space="preserve">5/14/2022 17:05</t>
   </si>
   <si>
-    <t xml:space="preserve">ss</t>
-  </si>
-  <si>
     <t xml:space="preserve">5/14/2022 21:40</t>
   </si>
   <si>
@@ -275,6 +272,15 @@
   </si>
   <si>
     <t xml:space="preserve">5/20/2022 18:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/20/2022 21:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/20/2022 21:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/20/2022 23:17</t>
   </si>
 </sst>
 </file>
@@ -384,13 +390,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A63" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D87" activeCellId="0" sqref="D87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -434,8 +440,9 @@
       <c r="D2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
+      <c r="E2" s="1" t="n">
+        <f aca="false">B2-C2</f>
+        <v>200</v>
       </c>
       <c r="F2" s="1" t="n">
         <f aca="false">B2-D2</f>
@@ -452,7 +459,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>583</v>
@@ -482,7 +489,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>1228</v>
@@ -512,7 +519,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>1587</v>
@@ -542,7 +549,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>3110</v>
@@ -572,7 +579,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>3532</v>
@@ -602,7 +609,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>3834</v>
@@ -632,7 +639,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>4139</v>
@@ -662,7 +669,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>4259</v>
@@ -692,7 +699,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>4404</v>
@@ -722,7 +729,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>4646</v>
@@ -752,7 +759,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>4762</v>
@@ -782,7 +789,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>5214</v>
@@ -812,7 +819,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>5446</v>
@@ -842,7 +849,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>5665</v>
@@ -872,7 +879,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>6207</v>
@@ -902,7 +909,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>6486</v>
@@ -932,7 +939,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>6893</v>
@@ -962,7 +969,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>7089</v>
@@ -992,7 +999,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>7339</v>
@@ -1022,7 +1029,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>7534</v>
@@ -1052,7 +1059,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>7771</v>
@@ -1082,7 +1089,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>8037</v>
@@ -1112,7 +1119,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>8308</v>
@@ -1142,7 +1149,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>8420</v>
@@ -1172,7 +1179,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>8620</v>
@@ -1202,7 +1209,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>8958</v>
@@ -1232,7 +1239,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3" t="n">
         <v>9186</v>
@@ -1262,7 +1269,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>9711</v>
@@ -1292,7 +1299,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>10359</v>
@@ -1322,7 +1329,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>10481</v>
@@ -1352,7 +1359,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>10797</v>
@@ -1382,7 +1389,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>10975</v>
@@ -1412,7 +1419,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>11434</v>
@@ -1442,7 +1449,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>11777</v>
@@ -1472,7 +1479,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>12553</v>
@@ -1502,7 +1509,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="3" t="n">
         <v>12892</v>
@@ -1532,7 +1539,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>13189</v>
@@ -1562,7 +1569,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" s="3" t="n">
         <v>13487</v>
@@ -1592,7 +1599,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" s="3" t="n">
         <v>13661</v>
@@ -1622,7 +1629,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="3" t="n">
         <v>13761</v>
@@ -1652,7 +1659,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" s="3" t="n">
         <v>15403</v>
@@ -1682,7 +1689,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="3" t="n">
         <v>15775</v>
@@ -1712,7 +1719,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" s="3" t="n">
         <v>16142</v>
@@ -1742,7 +1749,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" s="3" t="n">
         <v>16617</v>
@@ -1772,7 +1779,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" s="3" t="n">
         <v>16719</v>
@@ -1802,7 +1809,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" s="3" t="n">
         <v>16943</v>
@@ -1832,7 +1839,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" s="3" t="n">
         <v>17558</v>
@@ -1862,7 +1869,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" s="3" t="n">
         <v>17643</v>
@@ -1892,7 +1899,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" s="3" t="n">
         <v>18035</v>
@@ -1922,7 +1929,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" s="3" t="n">
         <v>18165</v>
@@ -1952,7 +1959,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" s="3" t="n">
         <v>18237</v>
@@ -1982,7 +1989,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54" s="3" t="n">
         <v>18795</v>
@@ -2012,7 +2019,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55" s="3" t="n">
         <v>19081</v>
@@ -2042,7 +2049,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56" s="3" t="n">
         <v>19621</v>
@@ -2072,7 +2079,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" s="3" t="n">
         <v>19763</v>
@@ -2102,7 +2109,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58" s="3" t="n">
         <v>21111</v>
@@ -2132,7 +2139,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B59" s="3" t="n">
         <v>21815</v>
@@ -2162,7 +2169,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B60" s="3" t="n">
         <v>22043</v>
@@ -2192,7 +2199,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B61" s="3" t="n">
         <v>22869</v>
@@ -2222,7 +2229,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B62" s="3" t="n">
         <v>23013</v>
@@ -2252,7 +2259,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" s="3" t="n">
         <v>23191</v>
@@ -2282,7 +2289,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B64" s="3" t="n">
         <v>23633</v>
@@ -2312,7 +2319,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B65" s="3" t="n">
         <v>24335</v>
@@ -2342,7 +2349,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" s="3" t="n">
         <v>25057</v>
@@ -2372,7 +2379,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B67" s="3" t="n">
         <v>25639</v>
@@ -2402,7 +2409,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68" s="3" t="n">
         <v>25777</v>
@@ -2432,7 +2439,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69" s="3" t="n">
         <v>26223</v>
@@ -2462,7 +2469,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B70" s="3" t="n">
         <v>26942</v>
@@ -2492,7 +2499,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B71" s="3" t="n">
         <v>27967</v>
@@ -2522,7 +2529,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B72" s="3" t="n">
         <v>28137</v>
@@ -2552,7 +2559,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B73" s="3" t="n">
         <v>28498</v>
@@ -2582,7 +2589,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B74" s="3" t="n">
         <v>28973</v>
@@ -2612,7 +2619,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B75" s="3" t="n">
         <v>29106</v>
@@ -2642,7 +2649,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B76" s="3" t="n">
         <v>29586</v>
@@ -2672,7 +2679,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B77" s="3" t="n">
         <v>29923</v>
@@ -2698,6 +2705,96 @@
       <c r="H77" s="0" t="n">
         <f aca="false">B77/D77</f>
         <v>1.94179104477612</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" s="3" t="n">
+        <v>30417</v>
+      </c>
+      <c r="C78" s="3" t="n">
+        <v>16102</v>
+      </c>
+      <c r="D78" s="3" t="n">
+        <v>15648</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <f aca="false">B78-C78</f>
+        <v>14315</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <f aca="false">B78-D78</f>
+        <v>14769</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <f aca="false">B78/C78</f>
+        <v>1.88901999751584</v>
+      </c>
+      <c r="H78" s="0" t="n">
+        <f aca="false">B78/D78</f>
+        <v>1.94382668711656</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" s="3" t="n">
+        <v>30895</v>
+      </c>
+      <c r="C79" s="3" t="n">
+        <v>16353</v>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>15981</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <f aca="false">B79-C79</f>
+        <v>14542</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <f aca="false">B79-D79</f>
+        <v>14914</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <f aca="false">B79/C79</f>
+        <v>1.88925579404391</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <f aca="false">B79/D79</f>
+        <v>1.93323321444215</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>31158</v>
+      </c>
+      <c r="C80" s="3" t="n">
+        <v>16583</v>
+      </c>
+      <c r="D80" s="3" t="n">
+        <v>16335</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <f aca="false">B80-C80</f>
+        <v>14575</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <f aca="false">B80-D80</f>
+        <v>14823</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <f aca="false">B80/C80</f>
+        <v>1.87891213893747</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <f aca="false">B80/D80</f>
+        <v>1.90743801652893</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t xml:space="preserve">5/20/2022 23:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/21/2022 7:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/21/2022 7:47</t>
   </si>
 </sst>
 </file>
@@ -390,13 +396,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A63" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D87" activeCellId="0" sqref="D87"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G90" activeCellId="0" sqref="G90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -2795,6 +2801,66 @@
       <c r="H80" s="0" t="n">
         <f aca="false">B80/D80</f>
         <v>1.90743801652893</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" s="3" t="n">
+        <v>31459</v>
+      </c>
+      <c r="C81" s="3" t="n">
+        <v>16691</v>
+      </c>
+      <c r="D81" s="3" t="n">
+        <v>16482</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <f aca="false">B81-C81</f>
+        <v>14768</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <f aca="false">B81-D81</f>
+        <v>14977</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <f aca="false">B81/C81</f>
+        <v>1.88478820921455</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <f aca="false">B81/D81</f>
+        <v>1.90868826598714</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" s="3" t="n">
+        <v>33356</v>
+      </c>
+      <c r="C82" s="3" t="n">
+        <v>17740</v>
+      </c>
+      <c r="D82" s="3" t="n">
+        <v>17652</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <f aca="false">B82-C82</f>
+        <v>15616</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <f aca="false">B82-D82</f>
+        <v>15704</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <f aca="false">B82/C82</f>
+        <v>1.88027057497182</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <f aca="false">B82/D82</f>
+        <v>1.88964423294811</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -287,6 +287,12 @@
   </si>
   <si>
     <t xml:space="preserve">5/21/2022 7:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/21/2022 9:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/21/2022 11:14</t>
   </si>
 </sst>
 </file>
@@ -396,13 +402,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G90" activeCellId="0" sqref="G90"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -2861,6 +2867,66 @@
       <c r="H82" s="0" t="n">
         <f aca="false">B82/D82</f>
         <v>1.88964423294811</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" s="3" t="n">
+        <v>33380</v>
+      </c>
+      <c r="C83" s="3" t="n">
+        <v>17757</v>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>17694</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <f aca="false">B83-C83</f>
+        <v>15623</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <f aca="false">B83-D83</f>
+        <v>15686</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <f aca="false">B83/C83</f>
+        <v>1.8798220420116</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <f aca="false">B83/D83</f>
+        <v>1.88651520289364</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" s="3" t="n">
+        <v>33994</v>
+      </c>
+      <c r="C84" s="3" t="n">
+        <v>18133</v>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>18130</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <f aca="false">B84-C84</f>
+        <v>15861</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <f aca="false">B84-D84</f>
+        <v>15864</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <f aca="false">B84/C84</f>
+        <v>1.87470357910991</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <f aca="false">B84/D84</f>
+        <v>1.8750137892995</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -293,6 +293,18 @@
   </si>
   <si>
     <t xml:space="preserve">5/21/2022 11:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/21/2022 13:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/21/2022 15:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/21/2022 16:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/21/2022 18:59</t>
   </si>
 </sst>
 </file>
@@ -402,13 +414,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F94" activeCellId="0" sqref="F94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -2927,6 +2939,126 @@
       <c r="H84" s="0" t="n">
         <f aca="false">B84/D84</f>
         <v>1.8750137892995</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" s="3" t="n">
+        <v>34130</v>
+      </c>
+      <c r="C85" s="3" t="n">
+        <v>18547</v>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>18429</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <f aca="false">B85-C85</f>
+        <v>15583</v>
+      </c>
+      <c r="F85" s="1" t="n">
+        <f aca="false">B85-D85</f>
+        <v>15701</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <f aca="false">B85/C85</f>
+        <v>1.84018978810589</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <f aca="false">B85/D85</f>
+        <v>1.85197243474958</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" s="3" t="n">
+        <v>34696</v>
+      </c>
+      <c r="C86" s="3" t="n">
+        <v>18976</v>
+      </c>
+      <c r="D86" s="3" t="n">
+        <v>18959</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <f aca="false">B86-C86</f>
+        <v>15720</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <f aca="false">B86-D86</f>
+        <v>15737</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <f aca="false">B86/C86</f>
+        <v>1.82841483979764</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <f aca="false">B86/D86</f>
+        <v>1.8300543277599</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="3" t="n">
+        <v>35330</v>
+      </c>
+      <c r="C87" s="3" t="n">
+        <v>19208</v>
+      </c>
+      <c r="D87" s="3" t="n">
+        <v>19085</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <f aca="false">B87-C87</f>
+        <v>16122</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <f aca="false">B87-D87</f>
+        <v>16245</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <f aca="false">B87/C87</f>
+        <v>1.8393377759267</v>
+      </c>
+      <c r="H87" s="0" t="n">
+        <f aca="false">B87/D87</f>
+        <v>1.85119203563008</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" s="3" t="n">
+        <v>35791</v>
+      </c>
+      <c r="C88" s="3" t="n">
+        <v>19376</v>
+      </c>
+      <c r="D88" s="3" t="n">
+        <v>19505</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <f aca="false">B88-C88</f>
+        <v>16415</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <f aca="false">B88-D88</f>
+        <v>16286</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <f aca="false">B88/C88</f>
+        <v>1.84718208092486</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <f aca="false">B88/D88</f>
+        <v>1.83496539348885</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -305,6 +305,33 @@
   </si>
   <si>
     <t xml:space="preserve">5/21/2022 18:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/21/2022 21:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/21/2022 22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/22/2022 6:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/22/2022 7:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/22/2022 8:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/22/2022 10:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/22/2022 13:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/22/2022 13:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/22/2022 14:26</t>
   </si>
 </sst>
 </file>
@@ -414,13 +441,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F94" activeCellId="0" sqref="F94"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G100" activeCellId="0" sqref="G100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -3059,6 +3086,276 @@
       <c r="H88" s="0" t="n">
         <f aca="false">B88/D88</f>
         <v>1.83496539348885</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="3" t="n">
+        <v>35926</v>
+      </c>
+      <c r="C89" s="3" t="n">
+        <v>19434</v>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>19597</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <f aca="false">B89-C89</f>
+        <v>16492</v>
+      </c>
+      <c r="F89" s="1" t="n">
+        <f aca="false">B89-D89</f>
+        <v>16329</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <f aca="false">B89/C89</f>
+        <v>1.84861582793043</v>
+      </c>
+      <c r="H89" s="0" t="n">
+        <f aca="false">B89/D89</f>
+        <v>1.83323978159922</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" s="3" t="n">
+        <v>36236</v>
+      </c>
+      <c r="C90" s="3" t="n">
+        <v>19527</v>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>19700</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <f aca="false">B90-C90</f>
+        <v>16709</v>
+      </c>
+      <c r="F90" s="1" t="n">
+        <f aca="false">B90-D90</f>
+        <v>16536</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <f aca="false">B90/C90</f>
+        <v>1.85568699749065</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <f aca="false">B90/D90</f>
+        <v>1.83939086294416</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" s="3" t="n">
+        <v>38333</v>
+      </c>
+      <c r="C91" s="3" t="n">
+        <v>21008</v>
+      </c>
+      <c r="D91" s="3" t="n">
+        <v>21329</v>
+      </c>
+      <c r="E91" s="1" t="n">
+        <f aca="false">B91-C91</f>
+        <v>17325</v>
+      </c>
+      <c r="F91" s="1" t="n">
+        <f aca="false">B91-D91</f>
+        <v>17004</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <f aca="false">B91/C91</f>
+        <v>1.82468583396801</v>
+      </c>
+      <c r="H91" s="0" t="n">
+        <f aca="false">B91/D91</f>
+        <v>1.79722443621361</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="3" t="n">
+        <v>38841</v>
+      </c>
+      <c r="C92" s="3" t="n">
+        <v>21273</v>
+      </c>
+      <c r="D92" s="3" t="n">
+        <v>21634</v>
+      </c>
+      <c r="E92" s="1" t="n">
+        <f aca="false">B92-C92</f>
+        <v>17568</v>
+      </c>
+      <c r="F92" s="1" t="n">
+        <f aca="false">B92-D92</f>
+        <v>17207</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <f aca="false">B92/C92</f>
+        <v>1.82583556621069</v>
+      </c>
+      <c r="H92" s="0" t="n">
+        <f aca="false">B92/D92</f>
+        <v>1.79536840159009</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="3" t="n">
+        <v>39269</v>
+      </c>
+      <c r="C93" s="3" t="n">
+        <v>21566</v>
+      </c>
+      <c r="D93" s="3" t="n">
+        <v>22031</v>
+      </c>
+      <c r="E93" s="1" t="n">
+        <f aca="false">B93-C93</f>
+        <v>17703</v>
+      </c>
+      <c r="F93" s="1" t="n">
+        <f aca="false">B93-D93</f>
+        <v>17238</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <f aca="false">B93/C93</f>
+        <v>1.82087545210053</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <f aca="false">B93/D93</f>
+        <v>1.78244292133811</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="3" t="n">
+        <v>39592</v>
+      </c>
+      <c r="C94" s="3" t="n">
+        <v>21855</v>
+      </c>
+      <c r="D94" s="3" t="n">
+        <v>22359</v>
+      </c>
+      <c r="E94" s="1" t="n">
+        <f aca="false">B94-C94</f>
+        <v>17737</v>
+      </c>
+      <c r="F94" s="1" t="n">
+        <f aca="false">B94-D94</f>
+        <v>17233</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <f aca="false">B94/C94</f>
+        <v>1.8115762983299</v>
+      </c>
+      <c r="H94" s="0" t="n">
+        <f aca="false">B94/D94</f>
+        <v>1.77074108859967</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" s="3" t="n">
+        <v>40096</v>
+      </c>
+      <c r="C95" s="3" t="n">
+        <v>22160</v>
+      </c>
+      <c r="D95" s="3" t="n">
+        <v>22933</v>
+      </c>
+      <c r="E95" s="1" t="n">
+        <f aca="false">B95-C95</f>
+        <v>17936</v>
+      </c>
+      <c r="F95" s="1" t="n">
+        <f aca="false">B95-D95</f>
+        <v>17163</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <f aca="false">B95/C95</f>
+        <v>1.80938628158845</v>
+      </c>
+      <c r="H95" s="0" t="n">
+        <f aca="false">B95/D95</f>
+        <v>1.7483975057777</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" s="3" t="n">
+        <v>40445</v>
+      </c>
+      <c r="C96" s="3" t="n">
+        <v>22439</v>
+      </c>
+      <c r="D96" s="3" t="n">
+        <v>23217</v>
+      </c>
+      <c r="E96" s="1" t="n">
+        <f aca="false">B96-C96</f>
+        <v>18006</v>
+      </c>
+      <c r="F96" s="1" t="n">
+        <f aca="false">B96-D96</f>
+        <v>17228</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <f aca="false">B96/C96</f>
+        <v>1.80244217656758</v>
+      </c>
+      <c r="H96" s="0" t="n">
+        <f aca="false">B96/D96</f>
+        <v>1.74204246888056</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" s="3" t="n">
+        <v>40927</v>
+      </c>
+      <c r="C97" s="3" t="n">
+        <v>22696</v>
+      </c>
+      <c r="D97" s="3" t="n">
+        <v>23549</v>
+      </c>
+      <c r="E97" s="1" t="n">
+        <f aca="false">B97-C97</f>
+        <v>18231</v>
+      </c>
+      <c r="F97" s="1" t="n">
+        <f aca="false">B97-D97</f>
+        <v>17378</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <f aca="false">B97/C97</f>
+        <v>1.80326929855481</v>
+      </c>
+      <c r="H97" s="0" t="n">
+        <f aca="false">B97/D97</f>
+        <v>1.73795065607881</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -331,7 +331,7 @@
     <t xml:space="preserve">5/22/2022 13:49</t>
   </si>
   <si>
-    <t xml:space="preserve">5/22/2022 14:26</t>
+    <t xml:space="preserve">5/22/2022 15:37</t>
   </si>
 </sst>
 </file>
@@ -443,11 +443,11 @@
   </sheetPr>
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G100" activeCellId="0" sqref="G100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B101" activeCellId="0" sqref="B101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -3333,29 +3333,29 @@
         <v>103</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>40927</v>
+        <v>40972</v>
       </c>
       <c r="C97" s="3" t="n">
-        <v>22696</v>
+        <v>22762</v>
       </c>
       <c r="D97" s="3" t="n">
-        <v>23549</v>
+        <v>23615</v>
       </c>
       <c r="E97" s="1" t="n">
         <f aca="false">B97-C97</f>
-        <v>18231</v>
+        <v>18210</v>
       </c>
       <c r="F97" s="1" t="n">
         <f aca="false">B97-D97</f>
-        <v>17378</v>
+        <v>17357</v>
       </c>
       <c r="G97" s="0" t="n">
         <f aca="false">B97/C97</f>
-        <v>1.80326929855481</v>
+        <v>1.80001757314823</v>
       </c>
       <c r="H97" s="0" t="n">
         <f aca="false">B97/D97</f>
-        <v>1.73795065607881</v>
+        <v>1.73499894135084</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -332,6 +332,15 @@
   </si>
   <si>
     <t xml:space="preserve">5/22/2022 15:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/22/2022 17:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/22/2022 19:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/22/2022 20:27</t>
   </si>
 </sst>
 </file>
@@ -441,13 +450,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B101" activeCellId="0" sqref="B101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -3356,6 +3365,96 @@
       <c r="H97" s="0" t="n">
         <f aca="false">B97/D97</f>
         <v>1.73499894135084</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" s="3" t="n">
+        <v>41381</v>
+      </c>
+      <c r="C98" s="3" t="n">
+        <v>23123</v>
+      </c>
+      <c r="D98" s="3" t="n">
+        <v>24033</v>
+      </c>
+      <c r="E98" s="1" t="n">
+        <f aca="false">B98-C98</f>
+        <v>18258</v>
+      </c>
+      <c r="F98" s="1" t="n">
+        <f aca="false">B98-D98</f>
+        <v>17348</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <f aca="false">B98/C98</f>
+        <v>1.7896034251611</v>
+      </c>
+      <c r="H98" s="0" t="n">
+        <f aca="false">B98/D98</f>
+        <v>1.72184080223027</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" s="3" t="n">
+        <v>41647</v>
+      </c>
+      <c r="C99" s="3" t="n">
+        <v>23342</v>
+      </c>
+      <c r="D99" s="3" t="n">
+        <v>24262</v>
+      </c>
+      <c r="E99" s="1" t="n">
+        <f aca="false">B99-C99</f>
+        <v>18305</v>
+      </c>
+      <c r="F99" s="1" t="n">
+        <f aca="false">B99-D99</f>
+        <v>17385</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <f aca="false">B99/C99</f>
+        <v>1.78420872247451</v>
+      </c>
+      <c r="H99" s="0" t="n">
+        <f aca="false">B99/D99</f>
+        <v>1.71655263374825</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" s="3" t="n">
+        <v>41998</v>
+      </c>
+      <c r="C100" s="3" t="n">
+        <v>23570</v>
+      </c>
+      <c r="D100" s="3" t="n">
+        <v>24523</v>
+      </c>
+      <c r="E100" s="1" t="n">
+        <f aca="false">B100-C100</f>
+        <v>18428</v>
+      </c>
+      <c r="F100" s="1" t="n">
+        <f aca="false">B100-D100</f>
+        <v>17475</v>
+      </c>
+      <c r="G100" s="0" t="n">
+        <f aca="false">B100/C100</f>
+        <v>1.78184132371659</v>
+      </c>
+      <c r="H100" s="0" t="n">
+        <f aca="false">B100/D100</f>
+        <v>1.71259633813155</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -340,7 +340,19 @@
     <t xml:space="preserve">5/22/2022 19:02</t>
   </si>
   <si>
-    <t xml:space="preserve">5/22/2022 20:27</t>
+    <t xml:space="preserve">5/22/2022 21:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/22/2022 23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/22/2022 23:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/23/2022 6:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/23/2022 7:45</t>
   </si>
 </sst>
 </file>
@@ -450,13 +462,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -3432,29 +3444,149 @@
         <v>106</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>41998</v>
+        <v>42435</v>
       </c>
       <c r="C100" s="3" t="n">
-        <v>23570</v>
+        <v>23779</v>
       </c>
       <c r="D100" s="3" t="n">
-        <v>24523</v>
+        <v>24759</v>
       </c>
       <c r="E100" s="1" t="n">
         <f aca="false">B100-C100</f>
-        <v>18428</v>
+        <v>18656</v>
       </c>
       <c r="F100" s="1" t="n">
         <f aca="false">B100-D100</f>
-        <v>17475</v>
+        <v>17676</v>
       </c>
       <c r="G100" s="0" t="n">
         <f aca="false">B100/C100</f>
-        <v>1.78184132371659</v>
+        <v>1.78455780310358</v>
       </c>
       <c r="H100" s="0" t="n">
         <f aca="false">B100/D100</f>
-        <v>1.71259633813155</v>
+        <v>1.71392221010542</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" s="3" t="n">
+        <v>42827</v>
+      </c>
+      <c r="C101" s="3" t="n">
+        <v>23980</v>
+      </c>
+      <c r="D101" s="3" t="n">
+        <v>24958</v>
+      </c>
+      <c r="E101" s="1" t="n">
+        <f aca="false">B101-C101</f>
+        <v>18847</v>
+      </c>
+      <c r="F101" s="1" t="n">
+        <f aca="false">B101-D101</f>
+        <v>17869</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <f aca="false">B101/C101</f>
+        <v>1.78594662218515</v>
+      </c>
+      <c r="H101" s="0" t="n">
+        <f aca="false">B101/D101</f>
+        <v>1.71596281753346</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" s="3" t="n">
+        <v>42893</v>
+      </c>
+      <c r="C102" s="3" t="n">
+        <v>24013</v>
+      </c>
+      <c r="D102" s="3" t="n">
+        <v>24986</v>
+      </c>
+      <c r="E102" s="1" t="n">
+        <f aca="false">B102-C102</f>
+        <v>18880</v>
+      </c>
+      <c r="F102" s="1" t="n">
+        <f aca="false">B102-D102</f>
+        <v>17907</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <f aca="false">B102/C102</f>
+        <v>1.78624078624079</v>
+      </c>
+      <c r="H102" s="0" t="n">
+        <f aca="false">B102/D102</f>
+        <v>1.71668134155127</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" s="3" t="n">
+        <v>43827</v>
+      </c>
+      <c r="C103" s="3" t="n">
+        <v>24869</v>
+      </c>
+      <c r="D103" s="3" t="n">
+        <v>25607</v>
+      </c>
+      <c r="E103" s="1" t="n">
+        <f aca="false">B103-C103</f>
+        <v>18958</v>
+      </c>
+      <c r="F103" s="1" t="n">
+        <f aca="false">B103-D103</f>
+        <v>18220</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <f aca="false">B103/C103</f>
+        <v>1.76231452812739</v>
+      </c>
+      <c r="H103" s="0" t="n">
+        <f aca="false">B103/D103</f>
+        <v>1.71152419260358</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" s="3" t="n">
+        <v>44183</v>
+      </c>
+      <c r="C104" s="3" t="n">
+        <v>25022</v>
+      </c>
+      <c r="D104" s="3" t="n">
+        <v>25835</v>
+      </c>
+      <c r="E104" s="1" t="n">
+        <f aca="false">B104-C104</f>
+        <v>19161</v>
+      </c>
+      <c r="F104" s="1" t="n">
+        <f aca="false">B104-D104</f>
+        <v>18348</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <f aca="false">B104/C104</f>
+        <v>1.76576612580929</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <f aca="false">B104/D104</f>
+        <v>1.71019934197794</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -353,6 +353,30 @@
   </si>
   <si>
     <t xml:space="preserve">5/23/2022 7:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/23/2022 9:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/23/2022 10:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/23/2022 11:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/23/2022 12:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/23/2022 14:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/23/2022 15:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/23/2022 17:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/23/2022 18:21</t>
   </si>
 </sst>
 </file>
@@ -462,13 +486,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -3587,6 +3611,246 @@
       <c r="H104" s="0" t="n">
         <f aca="false">B104/D104</f>
         <v>1.71019934197794</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" s="3" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C105" s="3" t="n">
+        <v>25951</v>
+      </c>
+      <c r="D105" s="3" t="n">
+        <v>26804</v>
+      </c>
+      <c r="E105" s="1" t="n">
+        <f aca="false">B105-C105</f>
+        <v>19376</v>
+      </c>
+      <c r="F105" s="1" t="n">
+        <f aca="false">B105-D105</f>
+        <v>18523</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <f aca="false">B105/C105</f>
+        <v>1.74663789449347</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <f aca="false">B105/D105</f>
+        <v>1.69105357409342</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" s="3" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C106" s="3" t="n">
+        <v>26309</v>
+      </c>
+      <c r="D106" s="3" t="n">
+        <v>27183</v>
+      </c>
+      <c r="E106" s="1" t="n">
+        <f aca="false">B106-C106</f>
+        <v>19304</v>
+      </c>
+      <c r="F106" s="1" t="n">
+        <f aca="false">B106-D106</f>
+        <v>18430</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <f aca="false">B106/C106</f>
+        <v>1.73374130525676</v>
+      </c>
+      <c r="H106" s="0" t="n">
+        <f aca="false">B106/D106</f>
+        <v>1.67799727771033</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" s="3" t="n">
+        <v>45953</v>
+      </c>
+      <c r="C107" s="3" t="n">
+        <v>26475</v>
+      </c>
+      <c r="D107" s="3" t="n">
+        <v>27440</v>
+      </c>
+      <c r="E107" s="1" t="n">
+        <f aca="false">B107-C107</f>
+        <v>19478</v>
+      </c>
+      <c r="F107" s="1" t="n">
+        <f aca="false">B107-D107</f>
+        <v>18513</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <f aca="false">B107/C107</f>
+        <v>1.73571293673277</v>
+      </c>
+      <c r="H107" s="0" t="n">
+        <f aca="false">B107/D107</f>
+        <v>1.67467201166181</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" s="3" t="n">
+        <v>46021</v>
+      </c>
+      <c r="C108" s="3" t="n">
+        <v>26519</v>
+      </c>
+      <c r="D108" s="3" t="n">
+        <v>27484</v>
+      </c>
+      <c r="E108" s="1" t="n">
+        <f aca="false">B108-C108</f>
+        <v>19502</v>
+      </c>
+      <c r="F108" s="1" t="n">
+        <f aca="false">B108-D108</f>
+        <v>18537</v>
+      </c>
+      <c r="G108" s="0" t="n">
+        <f aca="false">B108/C108</f>
+        <v>1.73539726234021</v>
+      </c>
+      <c r="H108" s="0" t="n">
+        <f aca="false">B108/D108</f>
+        <v>1.67446514335613</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" s="3" t="n">
+        <v>46476</v>
+      </c>
+      <c r="C109" s="3" t="n">
+        <v>26861</v>
+      </c>
+      <c r="D109" s="3" t="n">
+        <v>27800</v>
+      </c>
+      <c r="E109" s="1" t="n">
+        <f aca="false">B109-C109</f>
+        <v>19615</v>
+      </c>
+      <c r="F109" s="1" t="n">
+        <f aca="false">B109-D109</f>
+        <v>18676</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <f aca="false">B109/C109</f>
+        <v>1.73024086966234</v>
+      </c>
+      <c r="H109" s="0" t="n">
+        <f aca="false">B109/D109</f>
+        <v>1.67179856115108</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" s="3" t="n">
+        <v>46917</v>
+      </c>
+      <c r="C110" s="3" t="n">
+        <v>27240</v>
+      </c>
+      <c r="D110" s="3" t="n">
+        <v>28091</v>
+      </c>
+      <c r="E110" s="1" t="n">
+        <f aca="false">B110-C110</f>
+        <v>19677</v>
+      </c>
+      <c r="F110" s="1" t="n">
+        <f aca="false">B110-D110</f>
+        <v>18826</v>
+      </c>
+      <c r="G110" s="0" t="n">
+        <f aca="false">B110/C110</f>
+        <v>1.72235682819383</v>
+      </c>
+      <c r="H110" s="0" t="n">
+        <f aca="false">B110/D110</f>
+        <v>1.67017906090919</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" s="3" t="n">
+        <v>47200</v>
+      </c>
+      <c r="C111" s="3" t="n">
+        <v>27511</v>
+      </c>
+      <c r="D111" s="3" t="n">
+        <v>28340</v>
+      </c>
+      <c r="E111" s="1" t="n">
+        <f aca="false">B111-C111</f>
+        <v>19689</v>
+      </c>
+      <c r="F111" s="1" t="n">
+        <f aca="false">B111-D111</f>
+        <v>18860</v>
+      </c>
+      <c r="G111" s="0" t="n">
+        <f aca="false">B111/C111</f>
+        <v>1.71567736541747</v>
+      </c>
+      <c r="H111" s="0" t="n">
+        <f aca="false">B111/D111</f>
+        <v>1.66549047282992</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" s="3" t="n">
+        <v>47395</v>
+      </c>
+      <c r="C112" s="3" t="n">
+        <v>27654</v>
+      </c>
+      <c r="D112" s="3" t="n">
+        <v>28483</v>
+      </c>
+      <c r="E112" s="1" t="n">
+        <f aca="false">B112-C112</f>
+        <v>19741</v>
+      </c>
+      <c r="F112" s="1" t="n">
+        <f aca="false">B112-D112</f>
+        <v>18912</v>
+      </c>
+      <c r="G112" s="0" t="n">
+        <f aca="false">B112/C112</f>
+        <v>1.71385694655384</v>
+      </c>
+      <c r="H112" s="0" t="n">
+        <f aca="false">B112/D112</f>
+        <v>1.66397500263315</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -376,7 +376,10 @@
     <t xml:space="preserve">5/23/2022 17:24</t>
   </si>
   <si>
-    <t xml:space="preserve">5/23/2022 18:21</t>
+    <t xml:space="preserve">5/23/2022 19:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/23/2022 20:13</t>
   </si>
 </sst>
 </file>
@@ -486,13 +489,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H112"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A108" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -3828,29 +3831,59 @@
         <v>118</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>47395</v>
+        <v>47507</v>
       </c>
       <c r="C112" s="3" t="n">
-        <v>27654</v>
+        <v>27791</v>
       </c>
       <c r="D112" s="3" t="n">
-        <v>28483</v>
+        <v>28627</v>
       </c>
       <c r="E112" s="1" t="n">
         <f aca="false">B112-C112</f>
-        <v>19741</v>
+        <v>19716</v>
       </c>
       <c r="F112" s="1" t="n">
         <f aca="false">B112-D112</f>
-        <v>18912</v>
+        <v>18880</v>
       </c>
       <c r="G112" s="0" t="n">
         <f aca="false">B112/C112</f>
-        <v>1.71385694655384</v>
+        <v>1.70943830736569</v>
       </c>
       <c r="H112" s="0" t="n">
         <f aca="false">B112/D112</f>
-        <v>1.66397500263315</v>
+        <v>1.6595172389702</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" s="3" t="n">
+        <v>47809</v>
+      </c>
+      <c r="C113" s="3" t="n">
+        <v>28005</v>
+      </c>
+      <c r="D113" s="3" t="n">
+        <v>28863</v>
+      </c>
+      <c r="E113" s="1" t="n">
+        <f aca="false">B113-C113</f>
+        <v>19804</v>
+      </c>
+      <c r="F113" s="1" t="n">
+        <f aca="false">B113-D113</f>
+        <v>18946</v>
+      </c>
+      <c r="G113" s="0" t="n">
+        <f aca="false">B113/C113</f>
+        <v>1.70715943581503</v>
+      </c>
+      <c r="H113" s="0" t="n">
+        <f aca="false">B113/D113</f>
+        <v>1.65641132245435</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -379,7 +379,19 @@
     <t xml:space="preserve">5/23/2022 19:44</t>
   </si>
   <si>
-    <t xml:space="preserve">5/23/2022 20:13</t>
+    <t xml:space="preserve">5/23/2022 21:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/23/2022 21:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/23/2022 22:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/24/2022 6:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/24/2022 7:33</t>
   </si>
 </sst>
 </file>
@@ -489,13 +501,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A108" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H113"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H124" activeCellId="0" sqref="H124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -3861,29 +3873,149 @@
         <v>119</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>47809</v>
+        <v>47968</v>
       </c>
       <c r="C113" s="3" t="n">
-        <v>28005</v>
+        <v>28168</v>
       </c>
       <c r="D113" s="3" t="n">
-        <v>28863</v>
+        <v>29027</v>
       </c>
       <c r="E113" s="1" t="n">
         <f aca="false">B113-C113</f>
-        <v>19804</v>
+        <v>19800</v>
       </c>
       <c r="F113" s="1" t="n">
         <f aca="false">B113-D113</f>
-        <v>18946</v>
+        <v>18941</v>
       </c>
       <c r="G113" s="0" t="n">
         <f aca="false">B113/C113</f>
-        <v>1.70715943581503</v>
+        <v>1.70292530531099</v>
       </c>
       <c r="H113" s="0" t="n">
         <f aca="false">B113/D113</f>
-        <v>1.65641132245435</v>
+        <v>1.65253040272849</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114" s="3" t="n">
+        <v>48147</v>
+      </c>
+      <c r="C114" s="3" t="n">
+        <v>28375</v>
+      </c>
+      <c r="D114" s="3" t="n">
+        <v>29232</v>
+      </c>
+      <c r="E114" s="1" t="n">
+        <f aca="false">B114-C114</f>
+        <v>19772</v>
+      </c>
+      <c r="F114" s="1" t="n">
+        <f aca="false">B114-D114</f>
+        <v>18915</v>
+      </c>
+      <c r="G114" s="0" t="n">
+        <f aca="false">B114/C114</f>
+        <v>1.69681057268722</v>
+      </c>
+      <c r="H114" s="0" t="n">
+        <f aca="false">B114/D114</f>
+        <v>1.64706486042693</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" s="3" t="n">
+        <v>48225</v>
+      </c>
+      <c r="C115" s="3" t="n">
+        <v>28401</v>
+      </c>
+      <c r="D115" s="3" t="n">
+        <v>29267</v>
+      </c>
+      <c r="E115" s="1" t="n">
+        <f aca="false">B115-C115</f>
+        <v>19824</v>
+      </c>
+      <c r="F115" s="1" t="n">
+        <f aca="false">B115-D115</f>
+        <v>18958</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <f aca="false">B115/C115</f>
+        <v>1.69800359142284</v>
+      </c>
+      <c r="H115" s="0" t="n">
+        <f aca="false">B115/D115</f>
+        <v>1.64776027607886</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116" s="3" t="n">
+        <v>48947</v>
+      </c>
+      <c r="C116" s="3" t="n">
+        <v>29183</v>
+      </c>
+      <c r="D116" s="3" t="n">
+        <v>30051</v>
+      </c>
+      <c r="E116" s="1" t="n">
+        <f aca="false">B116-C116</f>
+        <v>19764</v>
+      </c>
+      <c r="F116" s="1" t="n">
+        <f aca="false">B116-D116</f>
+        <v>18896</v>
+      </c>
+      <c r="G116" s="0" t="n">
+        <f aca="false">B116/C116</f>
+        <v>1.67724360072645</v>
+      </c>
+      <c r="H116" s="0" t="n">
+        <f aca="false">B116/D116</f>
+        <v>1.62879771055872</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" s="3" t="n">
+        <v>49150</v>
+      </c>
+      <c r="C117" s="3" t="n">
+        <v>29277</v>
+      </c>
+      <c r="D117" s="3" t="n">
+        <v>30163</v>
+      </c>
+      <c r="E117" s="1" t="n">
+        <f aca="false">B117-C117</f>
+        <v>19873</v>
+      </c>
+      <c r="F117" s="1" t="n">
+        <f aca="false">B117-D117</f>
+        <v>18987</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <f aca="false">B117/C117</f>
+        <v>1.67879222597944</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <f aca="false">B117/D117</f>
+        <v>1.62947982627723</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -392,6 +392,21 @@
   </si>
   <si>
     <t xml:space="preserve">5/24/2022 7:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/24/2022 8:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/24/2022 11:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/24/2022 13:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/24/2022 14:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/24/2022 15:06</t>
   </si>
 </sst>
 </file>
@@ -501,13 +516,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H124" activeCellId="0" sqref="H124"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -4016,6 +4031,156 @@
       <c r="H117" s="0" t="n">
         <f aca="false">B117/D117</f>
         <v>1.62947982627723</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" s="3" t="n">
+        <v>49752</v>
+      </c>
+      <c r="C118" s="3" t="n">
+        <v>29690</v>
+      </c>
+      <c r="D118" s="3" t="n">
+        <v>30499</v>
+      </c>
+      <c r="E118" s="1" t="n">
+        <f aca="false">B118-C118</f>
+        <v>20062</v>
+      </c>
+      <c r="F118" s="1" t="n">
+        <f aca="false">B118-D118</f>
+        <v>19253</v>
+      </c>
+      <c r="G118" s="0" t="n">
+        <f aca="false">B118/C118</f>
+        <v>1.67571572920175</v>
+      </c>
+      <c r="H118" s="0" t="n">
+        <f aca="false">B118/D118</f>
+        <v>1.63126659890488</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" s="3" t="n">
+        <v>50504</v>
+      </c>
+      <c r="C119" s="3" t="n">
+        <v>30277</v>
+      </c>
+      <c r="D119" s="3" t="n">
+        <v>31051</v>
+      </c>
+      <c r="E119" s="1" t="n">
+        <f aca="false">B119-C119</f>
+        <v>20227</v>
+      </c>
+      <c r="F119" s="1" t="n">
+        <f aca="false">B119-D119</f>
+        <v>19453</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <f aca="false">B119/C119</f>
+        <v>1.66806486772137</v>
+      </c>
+      <c r="H119" s="0" t="n">
+        <f aca="false">B119/D119</f>
+        <v>1.62648545940549</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" s="3" t="n">
+        <v>50828</v>
+      </c>
+      <c r="C120" s="3" t="n">
+        <v>30516</v>
+      </c>
+      <c r="D120" s="3" t="n">
+        <v>31336</v>
+      </c>
+      <c r="E120" s="1" t="n">
+        <f aca="false">B120-C120</f>
+        <v>20312</v>
+      </c>
+      <c r="F120" s="1" t="n">
+        <f aca="false">B120-D120</f>
+        <v>19492</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <f aca="false">B120/C120</f>
+        <v>1.6656180364399</v>
+      </c>
+      <c r="H120" s="0" t="n">
+        <f aca="false">B120/D120</f>
+        <v>1.62203216747511</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" s="3" t="n">
+        <v>51185</v>
+      </c>
+      <c r="C121" s="3" t="n">
+        <v>31506</v>
+      </c>
+      <c r="D121" s="3" t="n">
+        <v>31999</v>
+      </c>
+      <c r="E121" s="1" t="n">
+        <f aca="false">B121-C121</f>
+        <v>19679</v>
+      </c>
+      <c r="F121" s="1" t="n">
+        <f aca="false">B121-D121</f>
+        <v>19186</v>
+      </c>
+      <c r="G121" s="0" t="n">
+        <f aca="false">B121/C121</f>
+        <v>1.62461118517108</v>
+      </c>
+      <c r="H121" s="0" t="n">
+        <f aca="false">B121/D121</f>
+        <v>1.59958123691365</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" s="3" t="n">
+        <v>51389</v>
+      </c>
+      <c r="C122" s="3" t="n">
+        <v>31577</v>
+      </c>
+      <c r="D122" s="3" t="n">
+        <v>32188</v>
+      </c>
+      <c r="E122" s="1" t="n">
+        <f aca="false">B122-C122</f>
+        <v>19812</v>
+      </c>
+      <c r="F122" s="1" t="n">
+        <f aca="false">B122-D122</f>
+        <v>19201</v>
+      </c>
+      <c r="G122" s="0" t="n">
+        <f aca="false">B122/C122</f>
+        <v>1.62741869081927</v>
+      </c>
+      <c r="H122" s="0" t="n">
+        <f aca="false">B122/D122</f>
+        <v>1.59652665589661</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -407,6 +407,12 @@
   </si>
   <si>
     <t xml:space="preserve">5/24/2022 15:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/24/2022 15:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/24/2022 14:44</t>
   </si>
 </sst>
 </file>
@@ -516,13 +522,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H122"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -4181,6 +4187,66 @@
       <c r="H122" s="0" t="n">
         <f aca="false">B122/D122</f>
         <v>1.59652665589661</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" s="3" t="n">
+        <v>51410</v>
+      </c>
+      <c r="C123" s="3" t="n">
+        <v>31593</v>
+      </c>
+      <c r="D123" s="3" t="n">
+        <v>32200</v>
+      </c>
+      <c r="E123" s="1" t="n">
+        <f aca="false">B123-C123</f>
+        <v>19817</v>
+      </c>
+      <c r="F123" s="1" t="n">
+        <f aca="false">B123-D123</f>
+        <v>19210</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <f aca="false">B123/C123</f>
+        <v>1.627259202988</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <f aca="false">B123/D123</f>
+        <v>1.59658385093168</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" s="3" t="n">
+        <v>52005</v>
+      </c>
+      <c r="C124" s="3" t="n">
+        <v>32126</v>
+      </c>
+      <c r="D124" s="3" t="n">
+        <v>32671</v>
+      </c>
+      <c r="E124" s="1" t="n">
+        <f aca="false">B124-C124</f>
+        <v>19879</v>
+      </c>
+      <c r="F124" s="1" t="n">
+        <f aca="false">B124-D124</f>
+        <v>19334</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <f aca="false">B124/C124</f>
+        <v>1.61878229471456</v>
+      </c>
+      <c r="H124" s="0" t="n">
+        <f aca="false">B124/D124</f>
+        <v>1.59177864160877</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -406,13 +406,22 @@
     <t xml:space="preserve">5/24/2022 14:17</t>
   </si>
   <si>
-    <t xml:space="preserve">5/24/2022 15:06</t>
-  </si>
-  <si>
     <t xml:space="preserve">5/24/2022 15:36</t>
   </si>
   <si>
-    <t xml:space="preserve">5/24/2022 14:44</t>
+    <t xml:space="preserve">5/24/2022 18:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/24/2022 21:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/24/2022 23:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/25/2022 6:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/25/2022 6:47</t>
   </si>
 </sst>
 </file>
@@ -522,13 +531,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H124"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G127" activeCellId="0" sqref="G127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -4164,29 +4173,29 @@
         <v>128</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>51389</v>
+        <v>51410</v>
       </c>
       <c r="C122" s="3" t="n">
-        <v>31577</v>
+        <v>31593</v>
       </c>
       <c r="D122" s="3" t="n">
-        <v>32188</v>
+        <v>32200</v>
       </c>
       <c r="E122" s="1" t="n">
         <f aca="false">B122-C122</f>
-        <v>19812</v>
+        <v>19817</v>
       </c>
       <c r="F122" s="1" t="n">
         <f aca="false">B122-D122</f>
-        <v>19201</v>
+        <v>19210</v>
       </c>
       <c r="G122" s="0" t="n">
         <f aca="false">B122/C122</f>
-        <v>1.62741869081927</v>
+        <v>1.627259202988</v>
       </c>
       <c r="H122" s="0" t="n">
         <f aca="false">B122/D122</f>
-        <v>1.59652665589661</v>
+        <v>1.59658385093168</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4194,29 +4203,29 @@
         <v>129</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>51410</v>
+        <v>52005</v>
       </c>
       <c r="C123" s="3" t="n">
-        <v>31593</v>
+        <v>32126</v>
       </c>
       <c r="D123" s="3" t="n">
-        <v>32200</v>
+        <v>32671</v>
       </c>
       <c r="E123" s="1" t="n">
         <f aca="false">B123-C123</f>
-        <v>19817</v>
+        <v>19879</v>
       </c>
       <c r="F123" s="1" t="n">
         <f aca="false">B123-D123</f>
-        <v>19210</v>
+        <v>19334</v>
       </c>
       <c r="G123" s="0" t="n">
         <f aca="false">B123/C123</f>
-        <v>1.627259202988</v>
+        <v>1.61878229471456</v>
       </c>
       <c r="H123" s="0" t="n">
         <f aca="false">B123/D123</f>
-        <v>1.59658385093168</v>
+        <v>1.59177864160877</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4224,29 +4233,119 @@
         <v>130</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>52005</v>
+        <v>52574</v>
       </c>
       <c r="C124" s="3" t="n">
-        <v>32126</v>
+        <v>32612</v>
       </c>
       <c r="D124" s="3" t="n">
-        <v>32671</v>
+        <v>33069</v>
       </c>
       <c r="E124" s="1" t="n">
         <f aca="false">B124-C124</f>
-        <v>19879</v>
+        <v>19962</v>
       </c>
       <c r="F124" s="1" t="n">
         <f aca="false">B124-D124</f>
-        <v>19334</v>
+        <v>19505</v>
       </c>
       <c r="G124" s="0" t="n">
         <f aca="false">B124/C124</f>
-        <v>1.61878229471456</v>
+        <v>1.61210597326138</v>
       </c>
       <c r="H124" s="0" t="n">
         <f aca="false">B124/D124</f>
-        <v>1.59177864160877</v>
+        <v>1.58982733073271</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" s="3" t="n">
+        <v>52750</v>
+      </c>
+      <c r="C125" s="3" t="n">
+        <v>32791</v>
+      </c>
+      <c r="D125" s="3" t="n">
+        <v>33256</v>
+      </c>
+      <c r="E125" s="1" t="n">
+        <f aca="false">B125-C125</f>
+        <v>19959</v>
+      </c>
+      <c r="F125" s="1" t="n">
+        <f aca="false">B125-D125</f>
+        <v>19494</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <f aca="false">B125/C125</f>
+        <v>1.6086731115245</v>
+      </c>
+      <c r="H125" s="0" t="n">
+        <f aca="false">B125/D125</f>
+        <v>1.5861799374549</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" s="3" t="n">
+        <v>53874</v>
+      </c>
+      <c r="C126" s="3" t="n">
+        <v>33491</v>
+      </c>
+      <c r="D126" s="3" t="n">
+        <v>33927</v>
+      </c>
+      <c r="E126" s="1" t="n">
+        <f aca="false">B126-C126</f>
+        <v>20383</v>
+      </c>
+      <c r="F126" s="1" t="n">
+        <f aca="false">B126-D126</f>
+        <v>19947</v>
+      </c>
+      <c r="G126" s="0" t="n">
+        <f aca="false">B126/C126</f>
+        <v>1.60861126869905</v>
+      </c>
+      <c r="H126" s="0" t="n">
+        <f aca="false">B126/D126</f>
+        <v>1.58793880979751</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" s="3" t="n">
+        <v>54748</v>
+      </c>
+      <c r="C127" s="3" t="n">
+        <v>33990</v>
+      </c>
+      <c r="D127" s="3" t="n">
+        <v>34621</v>
+      </c>
+      <c r="E127" s="1" t="n">
+        <f aca="false">B127-C127</f>
+        <v>20758</v>
+      </c>
+      <c r="F127" s="1" t="n">
+        <f aca="false">B127-D127</f>
+        <v>20127</v>
+      </c>
+      <c r="G127" s="0" t="n">
+        <f aca="false">B127/C127</f>
+        <v>1.61070903206826</v>
+      </c>
+      <c r="H127" s="0" t="n">
+        <f aca="false">B127/D127</f>
+        <v>1.58135235839519</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -421,7 +421,16 @@
     <t xml:space="preserve">5/25/2022 6:00</t>
   </si>
   <si>
-    <t xml:space="preserve">5/25/2022 6:47</t>
+    <t xml:space="preserve">5/25/2022 8:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/25/2022 10:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/25/2022 10:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/25/2022 11:10</t>
   </si>
 </sst>
 </file>
@@ -531,13 +540,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G127" activeCellId="0" sqref="G127"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A117" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G137" activeCellId="0" sqref="G137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -4323,29 +4332,119 @@
         <v>133</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>54748</v>
+        <v>54870</v>
       </c>
       <c r="C127" s="3" t="n">
-        <v>33990</v>
+        <v>34036</v>
       </c>
       <c r="D127" s="3" t="n">
-        <v>34621</v>
+        <v>34668</v>
       </c>
       <c r="E127" s="1" t="n">
         <f aca="false">B127-C127</f>
-        <v>20758</v>
+        <v>20834</v>
       </c>
       <c r="F127" s="1" t="n">
         <f aca="false">B127-D127</f>
-        <v>20127</v>
+        <v>20202</v>
       </c>
       <c r="G127" s="0" t="n">
         <f aca="false">B127/C127</f>
-        <v>1.61070903206826</v>
+        <v>1.61211658244212</v>
       </c>
       <c r="H127" s="0" t="n">
         <f aca="false">B127/D127</f>
-        <v>1.58135235839519</v>
+        <v>1.58272758740048</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" s="3" t="n">
+        <v>55458</v>
+      </c>
+      <c r="C128" s="3" t="n">
+        <v>34459</v>
+      </c>
+      <c r="D128" s="3" t="n">
+        <v>34104</v>
+      </c>
+      <c r="E128" s="1" t="n">
+        <f aca="false">B128-C128</f>
+        <v>20999</v>
+      </c>
+      <c r="F128" s="1" t="n">
+        <f aca="false">B128-D128</f>
+        <v>21354</v>
+      </c>
+      <c r="G128" s="0" t="n">
+        <f aca="false">B128/C128</f>
+        <v>1.60939087030964</v>
+      </c>
+      <c r="H128" s="0" t="n">
+        <f aca="false">B128/D128</f>
+        <v>1.62614356087263</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" s="3" t="n">
+        <v>55480</v>
+      </c>
+      <c r="C129" s="3" t="n">
+        <v>34475</v>
+      </c>
+      <c r="D129" s="3" t="n">
+        <v>35119</v>
+      </c>
+      <c r="E129" s="1" t="n">
+        <f aca="false">B129-C129</f>
+        <v>21005</v>
+      </c>
+      <c r="F129" s="1" t="n">
+        <f aca="false">B129-D129</f>
+        <v>20361</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <f aca="false">B129/C129</f>
+        <v>1.60928208846991</v>
+      </c>
+      <c r="H129" s="0" t="n">
+        <f aca="false">B129/D129</f>
+        <v>1.57977163358866</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" s="3" t="n">
+        <v>55747</v>
+      </c>
+      <c r="C130" s="3" t="n">
+        <v>34626</v>
+      </c>
+      <c r="D130" s="3" t="n">
+        <v>35372</v>
+      </c>
+      <c r="E130" s="1" t="n">
+        <f aca="false">B130-C130</f>
+        <v>21121</v>
+      </c>
+      <c r="F130" s="1" t="n">
+        <f aca="false">B130-D130</f>
+        <v>20375</v>
+      </c>
+      <c r="G130" s="0" t="n">
+        <f aca="false">B130/C130</f>
+        <v>1.60997516317218</v>
+      </c>
+      <c r="H130" s="0" t="n">
+        <f aca="false">B130/D130</f>
+        <v>1.57602058125071</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -431,6 +431,12 @@
   </si>
   <si>
     <t xml:space="preserve">5/25/2022 11:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/25/2022 13:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/25/2022 14:34</t>
   </si>
 </sst>
 </file>
@@ -540,13 +546,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A117" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G137" activeCellId="0" sqref="G137"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G127" activeCellId="0" sqref="G127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -4445,6 +4451,66 @@
       <c r="H130" s="0" t="n">
         <f aca="false">B130/D130</f>
         <v>1.57602058125071</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" s="3" t="n">
+        <v>56124</v>
+      </c>
+      <c r="C131" s="3" t="n">
+        <v>34917</v>
+      </c>
+      <c r="D131" s="3" t="n">
+        <v>35597</v>
+      </c>
+      <c r="E131" s="1" t="n">
+        <f aca="false">B131-C131</f>
+        <v>21207</v>
+      </c>
+      <c r="F131" s="1" t="n">
+        <f aca="false">B131-D131</f>
+        <v>20527</v>
+      </c>
+      <c r="G131" s="0" t="n">
+        <f aca="false">B131/C131</f>
+        <v>1.60735458372712</v>
+      </c>
+      <c r="H131" s="0" t="n">
+        <f aca="false">B131/D131</f>
+        <v>1.57664971767284</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" s="3" t="n">
+        <v>56544</v>
+      </c>
+      <c r="C132" s="3" t="n">
+        <v>35122</v>
+      </c>
+      <c r="D132" s="3" t="n">
+        <v>35754</v>
+      </c>
+      <c r="E132" s="1" t="n">
+        <f aca="false">B132-C132</f>
+        <v>21422</v>
+      </c>
+      <c r="F132" s="1" t="n">
+        <f aca="false">B132-D132</f>
+        <v>20790</v>
+      </c>
+      <c r="G132" s="0" t="n">
+        <f aca="false">B132/C132</f>
+        <v>1.60993109731792</v>
+      </c>
+      <c r="H132" s="0" t="n">
+        <f aca="false">B132/D132</f>
+        <v>1.58147340157745</v>
       </c>
     </row>
   </sheetData>

--- a/margin.xlsx
+++ b/margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t xml:space="preserve">Last_Update</t>
   </si>
@@ -424,19 +424,34 @@
     <t xml:space="preserve">5/25/2022 8:48</t>
   </si>
   <si>
-    <t xml:space="preserve">5/25/2022 10:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2022 10:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2022 11:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2022 13:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/25/2022 14:34</t>
+    <t xml:space="preserve">5/26/2022 10:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/26/2022 10:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/26/2022 11:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/26/2022 13:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/26/2022 14:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/26/2022 16:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/26/2022 18:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/26/2022 21:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/26/2022 9:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/26/2022 23:00</t>
   </si>
 </sst>
 </file>
@@ -546,13 +561,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G127" activeCellId="0" sqref="G127"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A116" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:H137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
   </cols>
@@ -4511,6 +4526,156 @@
       <c r="H132" s="0" t="n">
         <f aca="false">B132/D132</f>
         <v>1.58147340157745</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" s="3" t="n">
+        <v>56830</v>
+      </c>
+      <c r="C133" s="3" t="n">
+        <v>35311</v>
+      </c>
+      <c r="D133" s="3" t="n">
+        <v>35918</v>
+      </c>
+      <c r="E133" s="1" t="n">
+        <f aca="false">B133-C133</f>
+        <v>21519</v>
+      </c>
+      <c r="F133" s="1" t="n">
+        <f aca="false">B133-D133</f>
+        <v>20912</v>
+      </c>
+      <c r="G133" s="0" t="n">
+        <f aca="false">B133/C133</f>
+        <v>1.6094134972105</v>
+      </c>
+      <c r="H133" s="0" t="n">
+        <f aca="false">B133/D133</f>
+        <v>1.58221504538115</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134" s="3" t="n">
+        <v>57336</v>
+      </c>
+      <c r="C134" s="3" t="n">
+        <v>35727</v>
+      </c>
+      <c r="D134" s="3" t="n">
+        <v>36266</v>
+      </c>
+      <c r="E134" s="1" t="n">
+        <f aca="false">B134-C134</f>
+        <v>21609</v>
+      </c>
+      <c r="F134" s="1" t="n">
+        <f aca="false">B134-D134</f>
+        <v>21070</v>
+      </c>
+      <c r="G134" s="0" t="n">
+        <f aca="false">B134/C134</f>
+        <v>1.60483667814258</v>
+      </c>
+      <c r="H134" s="0" t="n">
+        <f aca="false">B134/D134</f>
+        <v>1.58098494457619</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135" s="3" t="n">
+        <v>57387</v>
+      </c>
+      <c r="C135" s="3" t="n">
+        <v>35755</v>
+      </c>
+      <c r="D135" s="3" t="n">
+        <v>36292</v>
+      </c>
+      <c r="E135" s="1" t="n">
+        <f aca="false">B135-C135</f>
+        <v>21632</v>
+      </c>
+      <c r="F135" s="1" t="n">
+        <f aca="false">B135-D135</f>
+        <v>21095</v>
+      </c>
+      <c r="G135" s="0" t="n">
+        <f aca="false">B135/C135</f>
+        <v>1.60500629282618</v>
+      </c>
+      <c r="H135" s="0" t="n">
+        <f aca="false">B135/D135</f>
+        <v>1.58125757742753</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136" s="3" t="n">
+        <v>59149</v>
+      </c>
+      <c r="C136" s="3" t="n">
+        <v>37218</v>
+      </c>
+      <c r="D136" s="3" t="n">
+        <v>37542</v>
+      </c>
+      <c r="E136" s="1" t="n">
+        <f aca="false">B136-C136</f>
+        <v>21931</v>
+      </c>
+      <c r="F136" s="1" t="n">
+        <f aca="false">B136-D136</f>
+        <v>21607</v>
+      </c>
+      <c r="G136" s="0" t="n">
+        <f aca="false">B136/C136</f>
+        <v>1.58925788596915</v>
+      </c>
+      <c r="H136" s="0" t="n">
+        <f aca="false">B136/D136</f>
+        <v>1.57554205955996</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137" s="3" t="n">
+        <v>61767</v>
+      </c>
+      <c r="C137" s="3" t="n">
+        <v>38117</v>
+      </c>
+      <c r="D137" s="3" t="n">
+        <v>38341</v>
+      </c>
+      <c r="E137" s="1" t="n">
+        <f aca="false">B137-C137</f>
+        <v>23650</v>
+      </c>
+      <c r="F137" s="1" t="n">
+        <f aca="false">B137-D137</f>
+        <v>23426</v>
+      </c>
+      <c r="G137" s="0" t="n">
+        <f aca="false">B137/C137</f>
+        <v>1.62045806333132</v>
+      </c>
+      <c r="H137" s="0" t="n">
+        <f aca="false">B137/D137</f>
+        <v>1.6109908453092</v>
       </c>
     </row>
   </sheetData>
